--- a/data/bio_co2.xlsx
+++ b/data/bio_co2.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keynedupont/Desktop/Drive/Pro/Aktan/Projets/GRT/Projets/Valorisation C02/Atelier #1/Prototypes/CO2_map/BioCO2_map/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC07D76A-9D44-814E-B913-C53B56931CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CF8054-3EDB-9040-B83E-4BA0BA826A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="2460" windowWidth="25540" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rebours_" sheetId="5" r:id="rId1"/>
     <sheet name="Injections_" sheetId="6" r:id="rId2"/>
     <sheet name="Industriels_" sheetId="7" r:id="rId3"/>
-    <sheet name="Zibacs_" sheetId="8" r:id="rId4"/>
-    <sheet name="Fermentations_" sheetId="9" r:id="rId5"/>
-    <sheet name="Fermentations" sheetId="4" r:id="rId6"/>
-    <sheet name="Pyrogazéifications" sheetId="2" r:id="rId7"/>
+    <sheet name="Feuil1" sheetId="10" r:id="rId4"/>
+    <sheet name="Zibacs_" sheetId="8" r:id="rId5"/>
+    <sheet name="Fermentations_" sheetId="9" r:id="rId6"/>
+    <sheet name="Fermentations" sheetId="4" r:id="rId7"/>
+    <sheet name="Pyrogazéifications" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Industriels_!$Q$1:$Q$328</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Injections_!$A$1:$Y$617</definedName>
   </definedNames>
-  <calcPr calcId="191028" refMode="R1C1"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,8 +46,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12790" uniqueCount="5017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12887" uniqueCount="5034">
   <si>
     <t>Nom du projet</t>
   </si>
@@ -15096,6 +15120,57 @@
   </si>
   <si>
     <t>-2.213848</t>
+  </si>
+  <si>
+    <t>Élément d'origine</t>
+  </si>
+  <si>
+    <t>Catégorie</t>
+  </si>
+  <si>
+    <t>Industrie du papier et des matériaux</t>
+  </si>
+  <si>
+    <t>Gestion des déchets</t>
+  </si>
+  <si>
+    <t>Énergie et production de chaleur</t>
+  </si>
+  <si>
+    <t>Alimentation et agriculture</t>
+  </si>
+  <si>
+    <t>Industrie chimique</t>
+  </si>
+  <si>
+    <t>Fabrication de pâte à papier</t>
+  </si>
+  <si>
+    <t>Immobilier</t>
+  </si>
+  <si>
+    <t>Services divers</t>
+  </si>
+  <si>
+    <t>Fabrication d'articles en papier à usage sanitaire ou domestique</t>
+  </si>
+  <si>
+    <t>Transport et automobile</t>
+  </si>
+  <si>
+    <t>Services publics</t>
+  </si>
+  <si>
+    <t>Autre mise à disposition de ressources humaines</t>
+  </si>
+  <si>
+    <t>Fabrication de produits à base de tabac</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>Libéllé_simple</t>
   </si>
 </sst>
 </file>
@@ -15105,7 +15180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15269,6 +15344,25 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF374151"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF374151"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111827"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -15855,7 +15949,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -15977,6 +16071,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -16471,7 +16568,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E7DBAB-86B8-44F8-8095-DA6680E38937}">
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -67492,15 +67591,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C00324-6E7F-A947-B567-6051050320A6}">
-  <dimension ref="A1:T328"/>
+  <dimension ref="A1:W328"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="63" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="19" max="19" width="72.5" customWidth="1"/>
+    <col min="22" max="22" width="37.6640625" style="49" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>4588</v>
       </c>
@@ -67561,8 +67664,11 @@
       <c r="T1" s="37" t="s">
         <v>5013</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="350" x14ac:dyDescent="0.2">
+      <c r="V1" s="37" t="s">
+        <v>5033</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="39">
         <v>1</v>
       </c>
@@ -67621,8 +67727,13 @@
       <c r="T2" s="41">
         <v>43.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="U2" s="40"/>
+      <c r="V2" s="53" t="str">
+        <f>VLOOKUP($Q2,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39">
         <v>2</v>
       </c>
@@ -67681,8 +67792,16 @@
       <c r="T3" s="42">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V3" s="53" t="str">
+        <f>VLOOKUP($Q3,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+      <c r="W3" t="str">
+        <f>VLOOKUP($Q$3,Feuil1!$A$1:$B$48,2)</f>
+        <v>Autre</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39">
         <v>3</v>
       </c>
@@ -67741,8 +67860,16 @@
       <c r="T4" s="42">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V4" s="53" t="str">
+        <f>VLOOKUP($Q4,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+      <c r="W4" t="str">
+        <f>VLOOKUP($Q$4,Feuil1!$A$1:$B$48,2)</f>
+        <v>Autre</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39">
         <v>4</v>
       </c>
@@ -67801,8 +67928,16 @@
       <c r="T5" s="44">
         <v>183</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="192" x14ac:dyDescent="0.2">
+      <c r="V5" s="53" t="str">
+        <f>VLOOKUP($Q5,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+      <c r="W5" t="str">
+        <f>VLOOKUP($Q$2,Feuil1!$A$1:$B$48,2)</f>
+        <v>Services divers</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39">
         <v>5</v>
       </c>
@@ -67863,8 +67998,12 @@
       <c r="T6" s="44">
         <v>132</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V6" s="53" t="str">
+        <f>VLOOKUP($Q6,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39">
         <v>6</v>
       </c>
@@ -67923,8 +68062,12 @@
       <c r="T7" s="42">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V7" s="53" t="str">
+        <f>VLOOKUP($Q7,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39">
         <v>7</v>
       </c>
@@ -67983,8 +68126,12 @@
       <c r="T8" s="45">
         <v>28.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="176" x14ac:dyDescent="0.2">
+      <c r="V8" s="53" t="str">
+        <f>VLOOKUP($Q8,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39">
         <v>8</v>
       </c>
@@ -68043,8 +68190,12 @@
       <c r="T9" s="45">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V9" s="53" t="str">
+        <f>VLOOKUP($Q9,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39">
         <v>9</v>
       </c>
@@ -68103,8 +68254,12 @@
       <c r="T10" s="46">
         <v>69.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V10" s="53" t="str">
+        <f>VLOOKUP($Q10,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39">
         <v>10</v>
       </c>
@@ -68163,8 +68318,12 @@
       <c r="T11" s="44">
         <v>119</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+      <c r="V11" s="53" t="str">
+        <f>VLOOKUP($Q11,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39">
         <v>11</v>
       </c>
@@ -68225,8 +68384,12 @@
       <c r="T12" s="45">
         <v>26.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="192" x14ac:dyDescent="0.2">
+      <c r="V12" s="53" t="str">
+        <f>VLOOKUP($Q12,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39">
         <v>12</v>
       </c>
@@ -68285,8 +68448,12 @@
       <c r="T13" s="44">
         <v>425</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" ht="176" x14ac:dyDescent="0.2">
+      <c r="V13" s="53" t="e">
+        <f>VLOOKUP($Q13,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39">
         <v>13</v>
       </c>
@@ -68345,8 +68512,12 @@
       <c r="T14" s="45">
         <v>25.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V14" s="53" t="str">
+        <f>VLOOKUP($Q14,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39">
         <v>14</v>
       </c>
@@ -68405,8 +68576,12 @@
       <c r="T15" s="42">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V15" s="53" t="str">
+        <f>VLOOKUP($Q15,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39">
         <v>15</v>
       </c>
@@ -68465,8 +68640,12 @@
       <c r="T16" s="41">
         <v>50.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="V16" s="53" t="str">
+        <f>VLOOKUP($Q16,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39">
         <v>16</v>
       </c>
@@ -68525,8 +68704,12 @@
       <c r="T17" s="45">
         <v>37.299999999999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="V17" s="53" t="str">
+        <f>VLOOKUP($Q17,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39">
         <v>17</v>
       </c>
@@ -68585,8 +68768,12 @@
       <c r="T18" s="41">
         <v>55.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V18" s="53" t="str">
+        <f>VLOOKUP($Q18,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39">
         <v>18</v>
       </c>
@@ -68645,8 +68832,12 @@
       <c r="T19" s="46">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V19" s="53" t="str">
+        <f>VLOOKUP($Q19,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39">
         <v>19</v>
       </c>
@@ -68705,8 +68896,12 @@
       <c r="T20" s="42">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V20" s="53" t="str">
+        <f>VLOOKUP($Q20,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39">
         <v>20</v>
       </c>
@@ -68765,8 +68960,12 @@
       <c r="T21" s="45">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V21" s="53" t="str">
+        <f>VLOOKUP($Q21,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39">
         <v>21</v>
       </c>
@@ -68825,8 +69024,12 @@
       <c r="T22" s="45">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V22" s="53" t="str">
+        <f>VLOOKUP($Q22,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39">
         <v>22</v>
       </c>
@@ -68885,8 +69088,12 @@
       <c r="T23" s="42">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V23" s="53" t="str">
+        <f>VLOOKUP($Q23,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39">
         <v>23</v>
       </c>
@@ -68945,8 +69152,12 @@
       <c r="T24" s="45">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V24" s="53" t="str">
+        <f>VLOOKUP($Q24,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39">
         <v>24</v>
       </c>
@@ -69005,8 +69216,12 @@
       <c r="T25" s="42">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V25" s="53" t="str">
+        <f>VLOOKUP($Q25,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39">
         <v>25</v>
       </c>
@@ -69065,8 +69280,12 @@
       <c r="T26" s="41">
         <v>43.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V26" s="53" t="str">
+        <f>VLOOKUP($Q26,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39">
         <v>26</v>
       </c>
@@ -69127,8 +69346,12 @@
       <c r="T27" s="46">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V27" s="53" t="str">
+        <f>VLOOKUP($Q27,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39">
         <v>27</v>
       </c>
@@ -69187,8 +69410,12 @@
       <c r="T28" s="45">
         <v>30.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V28" s="53" t="str">
+        <f>VLOOKUP($Q28,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39">
         <v>28</v>
       </c>
@@ -69247,8 +69474,12 @@
       <c r="T29" s="42">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+      <c r="V29" s="53" t="str">
+        <f>VLOOKUP($Q29,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39">
         <v>29</v>
       </c>
@@ -69307,8 +69538,12 @@
       <c r="T30" s="42">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V30" s="53" t="str">
+        <f>VLOOKUP($Q30,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39">
         <v>30</v>
       </c>
@@ -69367,8 +69602,12 @@
       <c r="T31" s="42">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V31" s="53" t="str">
+        <f>VLOOKUP($Q31,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39">
         <v>31</v>
       </c>
@@ -69427,8 +69666,12 @@
       <c r="T32" s="42">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V32" s="53" t="str">
+        <f>VLOOKUP($Q32,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39">
         <v>32</v>
       </c>
@@ -69487,8 +69730,12 @@
       <c r="T33" s="42">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" ht="176" x14ac:dyDescent="0.2">
+      <c r="V33" s="53" t="str">
+        <f>VLOOKUP($Q33,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39">
         <v>33</v>
       </c>
@@ -69547,8 +69794,12 @@
       <c r="T34" s="42">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V34" s="53" t="str">
+        <f>VLOOKUP($Q34,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39">
         <v>34</v>
       </c>
@@ -69607,8 +69858,12 @@
       <c r="T35" s="45">
         <v>24.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V35" s="53" t="str">
+        <f>VLOOKUP($Q35,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39">
         <v>35</v>
       </c>
@@ -69667,8 +69922,12 @@
       <c r="T36" s="45">
         <v>27.1</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V36" s="53" t="str">
+        <f>VLOOKUP($Q36,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Immobilier</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39">
         <v>36</v>
       </c>
@@ -69727,8 +69986,12 @@
       <c r="T37" s="46">
         <v>73.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V37" s="53" t="str">
+        <f>VLOOKUP($Q37,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39">
         <v>37</v>
       </c>
@@ -69787,8 +70050,12 @@
       <c r="T38" s="42">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V38" s="53" t="str">
+        <f>VLOOKUP($Q38,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39">
         <v>38</v>
       </c>
@@ -69847,8 +70114,12 @@
       <c r="T39" s="42">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="V39" s="53" t="str">
+        <f>VLOOKUP($Q39,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39">
         <v>39</v>
       </c>
@@ -69907,8 +70178,12 @@
       <c r="T40" s="42">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V40" s="53" t="str">
+        <f>VLOOKUP($Q40,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39">
         <v>40</v>
       </c>
@@ -69967,8 +70242,12 @@
       <c r="T41" s="45">
         <v>35.799999999999997</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V41" s="53" t="str">
+        <f>VLOOKUP($Q41,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39">
         <v>41</v>
       </c>
@@ -70027,8 +70306,12 @@
       <c r="T42" s="45">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V42" s="53" t="str">
+        <f>VLOOKUP($Q42,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39">
         <v>42</v>
       </c>
@@ -70087,8 +70370,12 @@
       <c r="T43" s="45">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V43" s="53" t="str">
+        <f>VLOOKUP($Q43,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39">
         <v>43</v>
       </c>
@@ -70147,8 +70434,12 @@
       <c r="T44" s="42">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V44" s="53" t="str">
+        <f>VLOOKUP($Q44,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39">
         <v>44</v>
       </c>
@@ -70207,8 +70498,12 @@
       <c r="T45" s="41">
         <v>49.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V45" s="53" t="str">
+        <f>VLOOKUP($Q45,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39">
         <v>45</v>
       </c>
@@ -70267,8 +70562,12 @@
       <c r="T46" s="42">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V46" s="53" t="str">
+        <f>VLOOKUP($Q46,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39">
         <v>46</v>
       </c>
@@ -70327,8 +70626,12 @@
       <c r="T47" s="45">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V47" s="53" t="str">
+        <f>VLOOKUP($Q47,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39">
         <v>47</v>
       </c>
@@ -70387,8 +70690,12 @@
       <c r="T48" s="42">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V48" s="53" t="str">
+        <f>VLOOKUP($Q48,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39">
         <v>48</v>
       </c>
@@ -70447,8 +70754,12 @@
       <c r="T49" s="42">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V49" s="53" t="str">
+        <f>VLOOKUP($Q49,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39">
         <v>49</v>
       </c>
@@ -70507,8 +70818,12 @@
       <c r="T50" s="42">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+      <c r="V50" s="53" t="str">
+        <f>VLOOKUP($Q50,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39">
         <v>50</v>
       </c>
@@ -70567,8 +70882,12 @@
       <c r="T51" s="42">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V51" s="53" t="str">
+        <f>VLOOKUP($Q51,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39">
         <v>51</v>
       </c>
@@ -70627,8 +70946,12 @@
       <c r="T52" s="42">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V52" s="53" t="str">
+        <f>VLOOKUP($Q52,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39">
         <v>52</v>
       </c>
@@ -70687,8 +71010,12 @@
       <c r="T53" s="45">
         <v>28.1</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" ht="176" x14ac:dyDescent="0.2">
+      <c r="V53" s="53" t="str">
+        <f>VLOOKUP($Q53,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39">
         <v>53</v>
       </c>
@@ -70749,8 +71076,12 @@
       <c r="T54" s="42">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V54" s="53" t="str">
+        <f>VLOOKUP($Q54,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39">
         <v>54</v>
       </c>
@@ -70809,8 +71140,12 @@
       <c r="T55" s="42">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V55" s="53" t="str">
+        <f>VLOOKUP($Q55,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39">
         <v>55</v>
       </c>
@@ -70869,8 +71204,12 @@
       <c r="T56" s="45">
         <v>26.3</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V56" s="53" t="str">
+        <f>VLOOKUP($Q56,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39">
         <v>56</v>
       </c>
@@ -70929,8 +71268,12 @@
       <c r="T57" s="46">
         <v>65.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V57" s="53" t="str">
+        <f>VLOOKUP($Q57,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39">
         <v>57</v>
       </c>
@@ -70989,8 +71332,12 @@
       <c r="T58" s="45">
         <v>24.8</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" ht="350" x14ac:dyDescent="0.2">
+      <c r="V58" s="53" t="str">
+        <f>VLOOKUP($Q58,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39">
         <v>58</v>
       </c>
@@ -71049,8 +71396,12 @@
       <c r="T59" s="44">
         <v>349</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V59" s="53" t="str">
+        <f>VLOOKUP($Q59,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39">
         <v>59</v>
       </c>
@@ -71109,8 +71460,12 @@
       <c r="T60" s="42">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V60" s="53" t="str">
+        <f>VLOOKUP($Q60,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39">
         <v>60</v>
       </c>
@@ -71169,8 +71524,12 @@
       <c r="T61" s="45">
         <v>23.7</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V61" s="53" t="str">
+        <f>VLOOKUP($Q61,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39">
         <v>61</v>
       </c>
@@ -71229,8 +71588,12 @@
       <c r="T62" s="42">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" ht="350" x14ac:dyDescent="0.2">
+      <c r="V62" s="53" t="str">
+        <f>VLOOKUP($Q62,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39">
         <v>62</v>
       </c>
@@ -71289,8 +71652,12 @@
       <c r="T63" s="42">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V63" s="53" t="str">
+        <f>VLOOKUP($Q63,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services divers</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39">
         <v>63</v>
       </c>
@@ -71349,8 +71716,12 @@
       <c r="T64" s="45">
         <v>34.299999999999997</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V64" s="53" t="str">
+        <f>VLOOKUP($Q64,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="39">
         <v>64</v>
       </c>
@@ -71409,8 +71780,12 @@
       <c r="T65" s="42">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" ht="350" x14ac:dyDescent="0.2">
+      <c r="V65" s="53" t="str">
+        <f>VLOOKUP($Q65,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39">
         <v>65</v>
       </c>
@@ -71469,8 +71844,12 @@
       <c r="T66" s="42">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V66" s="53" t="str">
+        <f>VLOOKUP($Q66,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="39">
         <v>66</v>
       </c>
@@ -71529,8 +71908,12 @@
       <c r="T67" s="42">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" ht="320" x14ac:dyDescent="0.2">
+      <c r="V67" s="53" t="str">
+        <f>VLOOKUP($Q67,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39">
         <v>67</v>
       </c>
@@ -71589,8 +71972,12 @@
       <c r="T68" s="46">
         <v>71.2</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V68" s="53" t="str">
+        <f>VLOOKUP($Q68,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Sidérurgie</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="39">
         <v>68</v>
       </c>
@@ -71649,8 +72036,12 @@
       <c r="T69" s="45">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V69" s="53" t="str">
+        <f>VLOOKUP($Q69,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39">
         <v>69</v>
       </c>
@@ -71709,8 +72100,12 @@
       <c r="T70" s="45">
         <v>38.1</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V70" s="53" t="str">
+        <f>VLOOKUP($Q70,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="39">
         <v>70</v>
       </c>
@@ -71769,8 +72164,12 @@
       <c r="T71" s="41">
         <v>48.5</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V71" s="53" t="str">
+        <f>VLOOKUP($Q71,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39">
         <v>71</v>
       </c>
@@ -71829,8 +72228,12 @@
       <c r="T72" s="46">
         <v>73.099999999999994</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" ht="350" x14ac:dyDescent="0.2">
+      <c r="V72" s="53" t="str">
+        <f>VLOOKUP($Q72,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="39">
         <v>72</v>
       </c>
@@ -71889,8 +72292,12 @@
       <c r="T73" s="42">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V73" s="53" t="str">
+        <f>VLOOKUP($Q73,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39">
         <v>73</v>
       </c>
@@ -71949,8 +72356,12 @@
       <c r="T74" s="42">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V74" s="53" t="str">
+        <f>VLOOKUP($Q74,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="39">
         <v>74</v>
       </c>
@@ -72009,8 +72420,12 @@
       <c r="T75" s="46">
         <v>99.8</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V75" s="53" t="str">
+        <f>VLOOKUP($Q75,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39">
         <v>75</v>
       </c>
@@ -72069,8 +72484,12 @@
       <c r="T76" s="42">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V76" s="53" t="str">
+        <f>VLOOKUP($Q76,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="39">
         <v>76</v>
       </c>
@@ -72129,8 +72548,12 @@
       <c r="T77" s="41">
         <v>45.9</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V77" s="53" t="str">
+        <f>VLOOKUP($Q77,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39">
         <v>77</v>
       </c>
@@ -72189,8 +72612,12 @@
       <c r="T78" s="46">
         <v>74.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V78" s="53" t="str">
+        <f>VLOOKUP($Q78,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="39">
         <v>78</v>
       </c>
@@ -72249,8 +72676,12 @@
       <c r="T79" s="42">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V79" s="53" t="str">
+        <f>VLOOKUP($Q79,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39">
         <v>79</v>
       </c>
@@ -72309,8 +72740,12 @@
       <c r="T80" s="45">
         <v>38.6</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V80" s="53" t="str">
+        <f>VLOOKUP($Q80,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="39">
         <v>80</v>
       </c>
@@ -72369,8 +72804,12 @@
       <c r="T81" s="45">
         <v>26.3</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V81" s="53" t="str">
+        <f>VLOOKUP($Q81,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39">
         <v>81</v>
       </c>
@@ -72429,8 +72868,12 @@
       <c r="T82" s="45">
         <v>25.1</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V82" s="53" t="str">
+        <f>VLOOKUP($Q82,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="39">
         <v>82</v>
       </c>
@@ -72489,8 +72932,12 @@
       <c r="T83" s="46">
         <v>73.8</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V83" s="53" t="str">
+        <f>VLOOKUP($Q83,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39">
         <v>83</v>
       </c>
@@ -72549,8 +72996,12 @@
       <c r="T84" s="44">
         <v>126</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V84" s="53" t="str">
+        <f>VLOOKUP($Q84,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="39">
         <v>84</v>
       </c>
@@ -72611,8 +73062,12 @@
       <c r="T85" s="42">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V85" s="53" t="str">
+        <f>VLOOKUP($Q85,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39">
         <v>85</v>
       </c>
@@ -72673,8 +73128,12 @@
       <c r="T86" s="45">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V86" s="53" t="str">
+        <f>VLOOKUP($Q86,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="39">
         <v>86</v>
       </c>
@@ -72735,8 +73194,12 @@
       <c r="T87" s="46">
         <v>63.4</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V87" s="53" t="str">
+        <f>VLOOKUP($Q87,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39">
         <v>87</v>
       </c>
@@ -72795,8 +73258,12 @@
       <c r="T88" s="42">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V88" s="53" t="str">
+        <f>VLOOKUP($Q88,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="39">
         <v>88</v>
       </c>
@@ -72857,8 +73324,12 @@
       <c r="T89" s="45">
         <v>27.1</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V89" s="53" t="str">
+        <f>VLOOKUP($Q89,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39">
         <v>89</v>
       </c>
@@ -72917,8 +73388,12 @@
       <c r="T90" s="42">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" ht="320" x14ac:dyDescent="0.2">
+      <c r="V90" s="53" t="str">
+        <f>VLOOKUP($Q90,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services divers</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="39">
         <v>90</v>
       </c>
@@ -72979,8 +73454,12 @@
       <c r="T91" s="46">
         <v>69.8</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V91" s="53" t="str">
+        <f>VLOOKUP($Q91,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Sidérurgie</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39">
         <v>91</v>
       </c>
@@ -73039,8 +73518,12 @@
       <c r="T92" s="42">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" ht="350" x14ac:dyDescent="0.2">
+      <c r="V92" s="53" t="str">
+        <f>VLOOKUP($Q92,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Sidérurgie</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="39">
         <v>92</v>
       </c>
@@ -73099,8 +73582,12 @@
       <c r="T93" s="45">
         <v>26.3</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V93" s="53" t="e">
+        <f>VLOOKUP($Q93,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39">
         <v>93</v>
       </c>
@@ -73159,8 +73646,12 @@
       <c r="T94" s="41">
         <v>52.6</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V94" s="53" t="str">
+        <f>VLOOKUP($Q94,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="39">
         <v>94</v>
       </c>
@@ -73219,8 +73710,12 @@
       <c r="T95" s="45">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V95" s="53" t="str">
+        <f>VLOOKUP($Q95,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services divers</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39">
         <v>95</v>
       </c>
@@ -73279,8 +73774,12 @@
       <c r="T96" s="45">
         <v>29.8</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V96" s="53" t="str">
+        <f>VLOOKUP($Q96,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="39">
         <v>96</v>
       </c>
@@ -73339,8 +73838,12 @@
       <c r="T97" s="41">
         <v>56</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V97" s="53" t="str">
+        <f>VLOOKUP($Q97,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39">
         <v>97</v>
       </c>
@@ -73399,8 +73902,12 @@
       <c r="T98" s="42">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" ht="240" x14ac:dyDescent="0.2">
+      <c r="V98" s="53" t="str">
+        <f>VLOOKUP($Q98,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="39">
         <v>98</v>
       </c>
@@ -73461,8 +73968,12 @@
       <c r="T99" s="44">
         <v>397</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" ht="176" x14ac:dyDescent="0.2">
+      <c r="V99" s="53" t="str">
+        <f>VLOOKUP($Q99,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Sidérurgie</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39">
         <v>99</v>
       </c>
@@ -73521,8 +74032,12 @@
       <c r="T100" s="42">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V100" s="53" t="str">
+        <f>VLOOKUP($Q100,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="39">
         <v>100</v>
       </c>
@@ -73581,8 +74096,12 @@
       <c r="T101" s="42">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V101" s="53" t="str">
+        <f>VLOOKUP($Q101,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39">
         <v>101</v>
       </c>
@@ -73641,8 +74160,12 @@
       <c r="T102" s="42">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V102" s="53" t="str">
+        <f>VLOOKUP($Q102,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Transport et automobile</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="39">
         <v>102</v>
       </c>
@@ -73701,8 +74224,12 @@
       <c r="T103" s="42">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="104" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V103" s="53" t="str">
+        <f>VLOOKUP($Q103,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="39">
         <v>103</v>
       </c>
@@ -73761,8 +74288,12 @@
       <c r="T104" s="46">
         <v>93.9</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V104" s="53" t="str">
+        <f>VLOOKUP($Q104,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services publics</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="39">
         <v>104</v>
       </c>
@@ -73821,8 +74352,12 @@
       <c r="T105" s="44">
         <v>155</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" ht="350" x14ac:dyDescent="0.2">
+      <c r="V105" s="53" t="str">
+        <f>VLOOKUP($Q105,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="39">
         <v>105</v>
       </c>
@@ -73881,8 +74416,12 @@
       <c r="T106" s="44">
         <v>249</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V106" s="53" t="str">
+        <f>VLOOKUP($Q106,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="39">
         <v>106</v>
       </c>
@@ -73941,8 +74480,12 @@
       <c r="T107" s="45">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V107" s="53" t="e">
+        <f>VLOOKUP($Q107,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="39">
         <v>107</v>
       </c>
@@ -74001,8 +74544,12 @@
       <c r="T108" s="41">
         <v>46.7</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V108" s="53" t="str">
+        <f>VLOOKUP($Q108,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="39">
         <v>108</v>
       </c>
@@ -74061,8 +74608,12 @@
       <c r="T109" s="42">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V109" s="53" t="str">
+        <f>VLOOKUP($Q109,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="39">
         <v>109</v>
       </c>
@@ -74121,8 +74672,12 @@
       <c r="T110" s="41">
         <v>51.8</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+      <c r="V110" s="53" t="str">
+        <f>VLOOKUP($Q110,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services publics</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="39">
         <v>110</v>
       </c>
@@ -74181,8 +74736,12 @@
       <c r="T111" s="42">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" ht="350" x14ac:dyDescent="0.2">
+      <c r="V111" s="53" t="str">
+        <f>VLOOKUP($Q111,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="39">
         <v>111</v>
       </c>
@@ -74241,8 +74800,12 @@
       <c r="T112" s="42">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V112" s="53" t="str">
+        <f>VLOOKUP($Q112,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="39">
         <v>112</v>
       </c>
@@ -74301,8 +74864,12 @@
       <c r="T113" s="42">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="V113" s="53" t="str">
+        <f>VLOOKUP($Q113,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Transport et automobile</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="39">
         <v>113</v>
       </c>
@@ -74361,8 +74928,12 @@
       <c r="T114" s="45">
         <v>26.1</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="V114" s="53" t="e">
+        <f>VLOOKUP($Q114,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="39">
         <v>114</v>
       </c>
@@ -74421,8 +74992,12 @@
       <c r="T115" s="42">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V115" s="53" t="str">
+        <f>VLOOKUP($Q115,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services divers</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="39">
         <v>115</v>
       </c>
@@ -74483,8 +75058,12 @@
       <c r="T116" s="46">
         <v>60.6</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V116" s="53" t="str">
+        <f>VLOOKUP($Q116,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="39">
         <v>116</v>
       </c>
@@ -74545,8 +75124,12 @@
       <c r="T117" s="45">
         <v>30.3</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V117" s="53" t="str">
+        <f>VLOOKUP($Q117,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="39">
         <v>117</v>
       </c>
@@ -74605,8 +75188,12 @@
       <c r="T118" s="41">
         <v>42.4</v>
       </c>
-    </row>
-    <row r="119" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V118" s="53" t="str">
+        <f>VLOOKUP($Q118,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services publics</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="39">
         <v>118</v>
       </c>
@@ -74667,8 +75254,12 @@
       <c r="T119" s="46">
         <v>82.1</v>
       </c>
-    </row>
-    <row r="120" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V119" s="53" t="str">
+        <f>VLOOKUP($Q119,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="39">
         <v>119</v>
       </c>
@@ -74729,8 +75320,12 @@
       <c r="T120" s="45">
         <v>31.9</v>
       </c>
-    </row>
-    <row r="121" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V120" s="53" t="str">
+        <f>VLOOKUP($Q120,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="39">
         <v>120</v>
       </c>
@@ -74789,8 +75384,12 @@
       <c r="T121" s="44">
         <v>102</v>
       </c>
-    </row>
-    <row r="122" spans="1:20" ht="192" x14ac:dyDescent="0.2">
+      <c r="V121" s="53" t="str">
+        <f>VLOOKUP($Q121,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="39">
         <v>121</v>
       </c>
@@ -74851,8 +75450,12 @@
       <c r="T122" s="42">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="123" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V122" s="53" t="str">
+        <f>VLOOKUP($Q122,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="39">
         <v>122</v>
       </c>
@@ -74913,8 +75516,12 @@
       <c r="T123" s="45">
         <v>28.8</v>
       </c>
-    </row>
-    <row r="124" spans="1:20" ht="176" x14ac:dyDescent="0.2">
+      <c r="V123" s="53" t="str">
+        <f>VLOOKUP($Q123,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="39">
         <v>123</v>
       </c>
@@ -74973,8 +75580,12 @@
       <c r="T124" s="42">
         <v>13</v>
       </c>
-    </row>
-    <row r="125" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V124" s="53" t="str">
+        <f>VLOOKUP($Q124,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services publics</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="39">
         <v>124</v>
       </c>
@@ -75035,8 +75646,12 @@
       <c r="T125" s="46">
         <v>70.400000000000006</v>
       </c>
-    </row>
-    <row r="126" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V125" s="53" t="str">
+        <f>VLOOKUP($Q125,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="39">
         <v>125</v>
       </c>
@@ -75095,8 +75710,12 @@
       <c r="T126" s="46">
         <v>79.8</v>
       </c>
-    </row>
-    <row r="127" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V126" s="53" t="str">
+        <f>VLOOKUP($Q126,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="39">
         <v>126</v>
       </c>
@@ -75155,8 +75774,12 @@
       <c r="T127" s="46">
         <v>62</v>
       </c>
-    </row>
-    <row r="128" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V127" s="53" t="str">
+        <f>VLOOKUP($Q127,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="39">
         <v>127</v>
       </c>
@@ -75215,8 +75838,12 @@
       <c r="T128" s="41">
         <v>57.2</v>
       </c>
-    </row>
-    <row r="129" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V128" s="53" t="str">
+        <f>VLOOKUP($Q128,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="39">
         <v>128</v>
       </c>
@@ -75275,8 +75902,12 @@
       <c r="T129" s="41">
         <v>52</v>
       </c>
-    </row>
-    <row r="130" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V129" s="53" t="str">
+        <f>VLOOKUP($Q129,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="39">
         <v>129</v>
       </c>
@@ -75335,8 +75966,12 @@
       <c r="T130" s="46">
         <v>96.7</v>
       </c>
-    </row>
-    <row r="131" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V130" s="53" t="str">
+        <f>VLOOKUP($Q130,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="39">
         <v>130</v>
       </c>
@@ -75397,8 +76032,12 @@
       <c r="T131" s="42">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="132" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V131" s="53" t="str">
+        <f>VLOOKUP($Q131,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Transport et automobile</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="39">
         <v>131</v>
       </c>
@@ -75457,8 +76096,12 @@
       <c r="T132" s="45">
         <v>33.4</v>
       </c>
-    </row>
-    <row r="133" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V132" s="53" t="str">
+        <f>VLOOKUP($Q132,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="39">
         <v>132</v>
       </c>
@@ -75517,8 +76160,12 @@
       <c r="T133" s="46">
         <v>71.099999999999994</v>
       </c>
-    </row>
-    <row r="134" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V133" s="53" t="str">
+        <f>VLOOKUP($Q133,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="39">
         <v>133</v>
       </c>
@@ -75577,8 +76224,12 @@
       <c r="T134" s="41">
         <v>50.8</v>
       </c>
-    </row>
-    <row r="135" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V134" s="53" t="str">
+        <f>VLOOKUP($Q134,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="39">
         <v>134</v>
       </c>
@@ -75637,8 +76288,12 @@
       <c r="T135" s="45">
         <v>24.8</v>
       </c>
-    </row>
-    <row r="136" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V135" s="53" t="str">
+        <f>VLOOKUP($Q135,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="39">
         <v>135</v>
       </c>
@@ -75699,8 +76354,12 @@
       <c r="T136" s="45">
         <v>34.5</v>
       </c>
-    </row>
-    <row r="137" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V136" s="53" t="str">
+        <f>VLOOKUP($Q136,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="39">
         <v>136</v>
       </c>
@@ -75759,8 +76418,12 @@
       <c r="T137" s="45">
         <v>22.3</v>
       </c>
-    </row>
-    <row r="138" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+      <c r="V137" s="53" t="str">
+        <f>VLOOKUP($Q137,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="39">
         <v>137</v>
       </c>
@@ -75821,8 +76484,12 @@
       <c r="T138" s="46">
         <v>64</v>
       </c>
-    </row>
-    <row r="139" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V138" s="53" t="str">
+        <f>VLOOKUP($Q138,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Sidérurgie</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="39">
         <v>138</v>
       </c>
@@ -75881,8 +76548,12 @@
       <c r="T139" s="41">
         <v>47.4</v>
       </c>
-    </row>
-    <row r="140" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V139" s="53" t="str">
+        <f>VLOOKUP($Q139,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="39">
         <v>139</v>
       </c>
@@ -75941,8 +76612,12 @@
       <c r="T140" s="44">
         <v>257</v>
       </c>
-    </row>
-    <row r="141" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V140" s="53" t="str">
+        <f>VLOOKUP($Q140,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="39">
         <v>140</v>
       </c>
@@ -76001,8 +76676,12 @@
       <c r="T141" s="44">
         <v>143</v>
       </c>
-    </row>
-    <row r="142" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V141" s="53" t="str">
+        <f>VLOOKUP($Q141,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="39">
         <v>141</v>
       </c>
@@ -76063,8 +76742,12 @@
       <c r="T142" s="42">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="143" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V142" s="53" t="str">
+        <f>VLOOKUP($Q142,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="39">
         <v>142</v>
       </c>
@@ -76123,8 +76806,12 @@
       <c r="T143" s="45">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="144" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V143" s="53" t="str">
+        <f>VLOOKUP($Q143,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="39">
         <v>143</v>
       </c>
@@ -76183,8 +76870,12 @@
       <c r="T144" s="41">
         <v>43.3</v>
       </c>
-    </row>
-    <row r="145" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V144" s="53" t="str">
+        <f>VLOOKUP($Q144,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="39">
         <v>144</v>
       </c>
@@ -76243,8 +76934,12 @@
       <c r="T145" s="44">
         <v>118</v>
       </c>
-    </row>
-    <row r="146" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V145" s="53" t="str">
+        <f>VLOOKUP($Q145,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="39">
         <v>145</v>
       </c>
@@ -76303,8 +76998,12 @@
       <c r="T146" s="42">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="147" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V146" s="53" t="str">
+        <f>VLOOKUP($Q146,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="39">
         <v>146</v>
       </c>
@@ -76365,8 +77064,12 @@
       <c r="T147" s="41">
         <v>57.2</v>
       </c>
-    </row>
-    <row r="148" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V147" s="53" t="str">
+        <f>VLOOKUP($Q147,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="39">
         <v>147</v>
       </c>
@@ -76425,8 +77128,12 @@
       <c r="T148" s="42">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="149" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V148" s="53" t="str">
+        <f>VLOOKUP($Q148,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="39">
         <v>148</v>
       </c>
@@ -76485,8 +77192,12 @@
       <c r="T149" s="41">
         <v>42.2</v>
       </c>
-    </row>
-    <row r="150" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V149" s="53" t="str">
+        <f>VLOOKUP($Q149,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="39">
         <v>149</v>
       </c>
@@ -76547,8 +77258,12 @@
       <c r="T150" s="44">
         <v>352</v>
       </c>
-    </row>
-    <row r="151" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V150" s="53" t="str">
+        <f>VLOOKUP($Q150,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="39">
         <v>150</v>
       </c>
@@ -76607,8 +77322,12 @@
       <c r="T151" s="42">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="152" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V151" s="53" t="str">
+        <f>VLOOKUP($Q151,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="39">
         <v>151</v>
       </c>
@@ -76669,8 +77388,12 @@
       <c r="T152" s="44">
         <v>130</v>
       </c>
-    </row>
-    <row r="153" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V152" s="53" t="str">
+        <f>VLOOKUP($Q152,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="39">
         <v>152</v>
       </c>
@@ -76729,8 +77452,12 @@
       <c r="T153" s="42">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="154" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V153" s="53" t="str">
+        <f>VLOOKUP($Q153,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Transport et automobile</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="39">
         <v>153</v>
       </c>
@@ -76791,8 +77518,12 @@
       <c r="T154" s="42">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="155" spans="1:20" ht="192" x14ac:dyDescent="0.2">
+      <c r="V154" s="53" t="str">
+        <f>VLOOKUP($Q154,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="39">
         <v>154</v>
       </c>
@@ -76851,8 +77582,12 @@
       <c r="T155" s="44">
         <v>710</v>
       </c>
-    </row>
-    <row r="156" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V155" s="53" t="e">
+        <f>VLOOKUP($Q155,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="39">
         <v>155</v>
       </c>
@@ -76913,8 +77648,12 @@
       <c r="T156" s="45">
         <v>30</v>
       </c>
-    </row>
-    <row r="157" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V156" s="53" t="str">
+        <f>VLOOKUP($Q156,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services divers</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="39">
         <v>156</v>
       </c>
@@ -76975,8 +77714,12 @@
       <c r="T157" s="46">
         <v>93.5</v>
       </c>
-    </row>
-    <row r="158" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V157" s="53" t="str">
+        <f>VLOOKUP($Q157,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="39">
         <v>157</v>
       </c>
@@ -77035,8 +77778,12 @@
       <c r="T158" s="42">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="159" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V158" s="53" t="str">
+        <f>VLOOKUP($Q158,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="39">
         <v>158</v>
       </c>
@@ -77095,8 +77842,12 @@
       <c r="T159" s="41">
         <v>45.2</v>
       </c>
-    </row>
-    <row r="160" spans="1:20" ht="192" x14ac:dyDescent="0.2">
+      <c r="V159" s="53" t="str">
+        <f>VLOOKUP($Q159,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="39">
         <v>159</v>
       </c>
@@ -77157,8 +77908,12 @@
       <c r="T160" s="44">
         <v>137</v>
       </c>
-    </row>
-    <row r="161" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V160" s="53" t="str">
+        <f>VLOOKUP($Q160,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="39">
         <v>160</v>
       </c>
@@ -77219,8 +77974,12 @@
       <c r="T161" s="45">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="162" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V161" s="53" t="str">
+        <f>VLOOKUP($Q161,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services publics</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="39">
         <v>161</v>
       </c>
@@ -77281,8 +78040,12 @@
       <c r="T162" s="42">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="163" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V162" s="53" t="str">
+        <f>VLOOKUP($Q162,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="39">
         <v>162</v>
       </c>
@@ -77343,8 +78106,12 @@
       <c r="T163" s="41">
         <v>43.5</v>
       </c>
-    </row>
-    <row r="164" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V163" s="53" t="str">
+        <f>VLOOKUP($Q163,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="39">
         <v>163</v>
       </c>
@@ -77403,8 +78170,12 @@
       <c r="T164" s="42">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="165" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V164" s="53" t="str">
+        <f>VLOOKUP($Q164,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="39">
         <v>164</v>
       </c>
@@ -77463,8 +78234,12 @@
       <c r="T165" s="46">
         <v>70.5</v>
       </c>
-    </row>
-    <row r="166" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V165" s="53" t="str">
+        <f>VLOOKUP($Q165,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services divers</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="39">
         <v>165</v>
       </c>
@@ -77525,8 +78300,12 @@
       <c r="T166" s="45">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="167" spans="1:20" ht="176" x14ac:dyDescent="0.2">
+      <c r="V166" s="53" t="str">
+        <f>VLOOKUP($Q166,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="39">
         <v>166</v>
       </c>
@@ -77585,8 +78364,12 @@
       <c r="T167" s="41">
         <v>41.4</v>
       </c>
-    </row>
-    <row r="168" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V167" s="53" t="str">
+        <f>VLOOKUP($Q167,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="39">
         <v>167</v>
       </c>
@@ -77645,8 +78428,12 @@
       <c r="T168" s="42">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="169" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V168" s="53" t="str">
+        <f>VLOOKUP($Q168,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="39">
         <v>168</v>
       </c>
@@ -77705,8 +78492,12 @@
       <c r="T169" s="42">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="170" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V169" s="53" t="str">
+        <f>VLOOKUP($Q169,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="39">
         <v>169</v>
       </c>
@@ -77767,8 +78558,12 @@
       <c r="T170" s="41">
         <v>54.9</v>
       </c>
-    </row>
-    <row r="171" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V170" s="53" t="str">
+        <f>VLOOKUP($Q170,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="39">
         <v>170</v>
       </c>
@@ -77827,8 +78622,12 @@
       <c r="T171" s="45">
         <v>38.299999999999997</v>
       </c>
-    </row>
-    <row r="172" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V171" s="53" t="str">
+        <f>VLOOKUP($Q171,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="39">
         <v>171</v>
       </c>
@@ -77889,8 +78688,12 @@
       <c r="T172" s="41">
         <v>54.6</v>
       </c>
-    </row>
-    <row r="173" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V172" s="53" t="str">
+        <f>VLOOKUP($Q172,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="39">
         <v>172</v>
       </c>
@@ -77949,8 +78752,12 @@
       <c r="T173" s="44">
         <v>193</v>
       </c>
-    </row>
-    <row r="174" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V173" s="53" t="str">
+        <f>VLOOKUP($Q173,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="39">
         <v>173</v>
       </c>
@@ -78009,8 +78816,12 @@
       <c r="T174" s="42">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="175" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V174" s="53" t="str">
+        <f>VLOOKUP($Q174,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="39">
         <v>174</v>
       </c>
@@ -78069,8 +78880,12 @@
       <c r="T175" s="42">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="176" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V175" s="53" t="str">
+        <f>VLOOKUP($Q175,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="39">
         <v>175</v>
       </c>
@@ -78129,8 +78944,12 @@
       <c r="T176" s="42">
         <v>14</v>
       </c>
-    </row>
-    <row r="177" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V176" s="53" t="str">
+        <f>VLOOKUP($Q176,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="39">
         <v>176</v>
       </c>
@@ -78189,8 +79008,12 @@
       <c r="T177" s="46">
         <v>65.099999999999994</v>
       </c>
-    </row>
-    <row r="178" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V177" s="53" t="str">
+        <f>VLOOKUP($Q177,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="39">
         <v>177</v>
       </c>
@@ -78249,8 +79072,12 @@
       <c r="T178" s="45">
         <v>35.9</v>
       </c>
-    </row>
-    <row r="179" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V178" s="53" t="str">
+        <f>VLOOKUP($Q178,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="39">
         <v>178</v>
       </c>
@@ -78309,8 +79136,12 @@
       <c r="T179" s="42">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="180" spans="1:20" ht="240" x14ac:dyDescent="0.2">
+      <c r="V179" s="53" t="str">
+        <f>VLOOKUP($Q179,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="39">
         <v>179</v>
       </c>
@@ -78369,8 +79200,12 @@
       <c r="T180" s="45">
         <v>25.9</v>
       </c>
-    </row>
-    <row r="181" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V180" s="53" t="str">
+        <f>VLOOKUP($Q180,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Sidérurgie</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="39">
         <v>180</v>
       </c>
@@ -78431,8 +79266,12 @@
       <c r="T181" s="42">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="182" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V181" s="53" t="str">
+        <f>VLOOKUP($Q181,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="39">
         <v>181</v>
       </c>
@@ -78491,8 +79330,12 @@
       <c r="T182" s="45">
         <v>36.9</v>
       </c>
-    </row>
-    <row r="183" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V182" s="53" t="str">
+        <f>VLOOKUP($Q182,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="39">
         <v>182</v>
       </c>
@@ -78551,8 +79394,12 @@
       <c r="T183" s="45">
         <v>26</v>
       </c>
-    </row>
-    <row r="184" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V183" s="53" t="str">
+        <f>VLOOKUP($Q183,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="39">
         <v>183</v>
       </c>
@@ -78611,8 +79458,12 @@
       <c r="T184" s="42">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="185" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V184" s="53" t="str">
+        <f>VLOOKUP($Q184,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="39">
         <v>184</v>
       </c>
@@ -78671,8 +79522,12 @@
       <c r="T185" s="42">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="186" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V185" s="53" t="str">
+        <f>VLOOKUP($Q185,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="39">
         <v>185</v>
       </c>
@@ -78731,8 +79586,12 @@
       <c r="T186" s="45">
         <v>30</v>
       </c>
-    </row>
-    <row r="187" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V186" s="53" t="str">
+        <f>VLOOKUP($Q186,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="39">
         <v>186</v>
       </c>
@@ -78791,8 +79650,12 @@
       <c r="T187" s="42">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="188" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V187" s="53" t="str">
+        <f>VLOOKUP($Q187,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="39">
         <v>187</v>
       </c>
@@ -78851,8 +79714,12 @@
       <c r="T188" s="42">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="189" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V188" s="53" t="str">
+        <f>VLOOKUP($Q188,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="39">
         <v>188</v>
       </c>
@@ -78911,8 +79778,12 @@
       <c r="T189" s="46">
         <v>89.5</v>
       </c>
-    </row>
-    <row r="190" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V189" s="53" t="str">
+        <f>VLOOKUP($Q189,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="39">
         <v>189</v>
       </c>
@@ -78971,8 +79842,12 @@
       <c r="T190" s="42">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="191" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V190" s="53" t="str">
+        <f>VLOOKUP($Q190,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="39">
         <v>190</v>
       </c>
@@ -79031,8 +79906,12 @@
       <c r="T191" s="44">
         <v>104</v>
       </c>
-    </row>
-    <row r="192" spans="1:20" ht="192" x14ac:dyDescent="0.2">
+      <c r="V191" s="53" t="str">
+        <f>VLOOKUP($Q191,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="39">
         <v>191</v>
       </c>
@@ -79091,8 +79970,12 @@
       <c r="T192" s="44">
         <v>820</v>
       </c>
-    </row>
-    <row r="193" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V192" s="53" t="str">
+        <f>VLOOKUP($Q192,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="39">
         <v>192</v>
       </c>
@@ -79151,8 +80034,12 @@
       <c r="T193" s="41">
         <v>59.4</v>
       </c>
-    </row>
-    <row r="194" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V193" s="53" t="str">
+        <f>VLOOKUP($Q193,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="39">
         <v>193</v>
       </c>
@@ -79211,8 +80098,12 @@
       <c r="T194" s="41">
         <v>51</v>
       </c>
-    </row>
-    <row r="195" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V194" s="53" t="str">
+        <f>VLOOKUP($Q194,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="39">
         <v>194</v>
       </c>
@@ -79271,8 +80162,12 @@
       <c r="T195" s="41">
         <v>59.9</v>
       </c>
-    </row>
-    <row r="196" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V195" s="53" t="str">
+        <f>VLOOKUP($Q195,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="39">
         <v>195</v>
       </c>
@@ -79331,8 +80226,12 @@
       <c r="T196" s="41">
         <v>44.3</v>
       </c>
-    </row>
-    <row r="197" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V196" s="53" t="str">
+        <f>VLOOKUP($Q196,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="39">
         <v>196</v>
       </c>
@@ -79391,8 +80290,12 @@
       <c r="T197" s="42">
         <v>12</v>
       </c>
-    </row>
-    <row r="198" spans="1:20" ht="350" x14ac:dyDescent="0.2">
+      <c r="V197" s="53" t="str">
+        <f>VLOOKUP($Q197,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="39">
         <v>197</v>
       </c>
@@ -79453,8 +80356,12 @@
       <c r="T198" s="44">
         <v>128</v>
       </c>
-    </row>
-    <row r="199" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V198" s="53" t="str">
+        <f>VLOOKUP($Q198,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="39">
         <v>198</v>
       </c>
@@ -79513,8 +80420,12 @@
       <c r="T199" s="42">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="200" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V199" s="53" t="str">
+        <f>VLOOKUP($Q199,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="39">
         <v>199</v>
       </c>
@@ -79573,8 +80484,12 @@
       <c r="T200" s="42">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="201" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V200" s="53" t="str">
+        <f>VLOOKUP($Q200,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="39">
         <v>200</v>
       </c>
@@ -79635,8 +80550,12 @@
       <c r="T201" s="42">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="202" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V201" s="53" t="str">
+        <f>VLOOKUP($Q201,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="39">
         <v>201</v>
       </c>
@@ -79695,8 +80614,12 @@
       <c r="T202" s="46">
         <v>60.8</v>
       </c>
-    </row>
-    <row r="203" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V202" s="53" t="str">
+        <f>VLOOKUP($Q202,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="39">
         <v>202</v>
       </c>
@@ -79757,8 +80680,12 @@
       <c r="T203" s="42">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="204" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V203" s="53" t="str">
+        <f>VLOOKUP($Q203,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="39">
         <v>203</v>
       </c>
@@ -79817,8 +80744,12 @@
       <c r="T204" s="42">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="205" spans="1:20" ht="350" x14ac:dyDescent="0.2">
+      <c r="V204" s="53" t="str">
+        <f>VLOOKUP($Q204,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="39">
         <v>204</v>
       </c>
@@ -79877,8 +80808,12 @@
       <c r="T205" s="41">
         <v>48.7</v>
       </c>
-    </row>
-    <row r="206" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V205" s="53" t="str">
+        <f>VLOOKUP($Q205,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="39">
         <v>205</v>
       </c>
@@ -79937,8 +80872,12 @@
       <c r="T206" s="42">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="207" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V206" s="53" t="str">
+        <f>VLOOKUP($Q206,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="39">
         <v>206</v>
       </c>
@@ -79997,8 +80936,12 @@
       <c r="T207" s="45">
         <v>24.7</v>
       </c>
-    </row>
-    <row r="208" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V207" s="53" t="str">
+        <f>VLOOKUP($Q207,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="39">
         <v>207</v>
       </c>
@@ -80057,8 +81000,12 @@
       <c r="T208" s="45">
         <v>30.3</v>
       </c>
-    </row>
-    <row r="209" spans="1:20" ht="350" x14ac:dyDescent="0.2">
+      <c r="V208" s="53" t="str">
+        <f>VLOOKUP($Q208,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="39">
         <v>208</v>
       </c>
@@ -80117,8 +81064,12 @@
       <c r="T209" s="44">
         <v>119</v>
       </c>
-    </row>
-    <row r="210" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V209" s="53" t="str">
+        <f>VLOOKUP($Q209,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="39">
         <v>209</v>
       </c>
@@ -80177,8 +81128,12 @@
       <c r="T210" s="42">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="211" spans="1:20" ht="350" x14ac:dyDescent="0.2">
+      <c r="V210" s="53" t="str">
+        <f>VLOOKUP($Q210,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="39">
         <v>210</v>
       </c>
@@ -80237,8 +81192,12 @@
       <c r="T211" s="44">
         <v>705</v>
       </c>
-    </row>
-    <row r="212" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V211" s="53" t="str">
+        <f>VLOOKUP($Q211,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="39">
         <v>211</v>
       </c>
@@ -80297,8 +81256,12 @@
       <c r="T212" s="45">
         <v>28.4</v>
       </c>
-    </row>
-    <row r="213" spans="1:20" ht="192" x14ac:dyDescent="0.2">
+      <c r="V212" s="53" t="str">
+        <f>VLOOKUP($Q212,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="39">
         <v>212</v>
       </c>
@@ -80357,8 +81320,12 @@
       <c r="T213" s="42">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="214" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V213" s="53" t="str">
+        <f>VLOOKUP($Q213,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="39">
         <v>213</v>
       </c>
@@ -80417,8 +81384,12 @@
       <c r="T214" s="42">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="215" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V214" s="53" t="str">
+        <f>VLOOKUP($Q214,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="39">
         <v>214</v>
       </c>
@@ -80477,8 +81448,12 @@
       <c r="T215" s="46">
         <v>63.2</v>
       </c>
-    </row>
-    <row r="216" spans="1:20" ht="320" x14ac:dyDescent="0.2">
+      <c r="V215" s="53" t="str">
+        <f>VLOOKUP($Q215,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="39">
         <v>215</v>
       </c>
@@ -80539,8 +81514,12 @@
       <c r="T216" s="41">
         <v>56.3</v>
       </c>
-    </row>
-    <row r="217" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V216" s="53" t="str">
+        <f>VLOOKUP($Q216,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Sidérurgie</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="39">
         <v>216</v>
       </c>
@@ -80599,8 +81578,12 @@
       <c r="T217" s="45">
         <v>35.6</v>
       </c>
-    </row>
-    <row r="218" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V217" s="53" t="str">
+        <f>VLOOKUP($Q217,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="39">
         <v>217</v>
       </c>
@@ -80659,8 +81642,12 @@
       <c r="T218" s="42">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="219" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V218" s="53" t="str">
+        <f>VLOOKUP($Q218,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services publics</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="39">
         <v>218</v>
       </c>
@@ -80719,8 +81706,12 @@
       <c r="T219" s="42">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="220" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V219" s="53" t="str">
+        <f>VLOOKUP($Q219,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="39">
         <v>219</v>
       </c>
@@ -80779,8 +81770,12 @@
       <c r="T220" s="42">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="221" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V220" s="53" t="str">
+        <f>VLOOKUP($Q220,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="39">
         <v>220</v>
       </c>
@@ -80839,8 +81834,12 @@
       <c r="T221" s="45">
         <v>31.4</v>
       </c>
-    </row>
-    <row r="222" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V221" s="53" t="str">
+        <f>VLOOKUP($Q221,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="39">
         <v>221</v>
       </c>
@@ -80899,8 +81898,12 @@
       <c r="T222" s="45">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="223" spans="1:20" ht="350" x14ac:dyDescent="0.2">
+      <c r="V222" s="53" t="str">
+        <f>VLOOKUP($Q222,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="39">
         <v>222</v>
       </c>
@@ -80959,8 +81962,12 @@
       <c r="T223" s="44">
         <v>160</v>
       </c>
-    </row>
-    <row r="224" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V223" s="53" t="str">
+        <f>VLOOKUP($Q223,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="39">
         <v>223</v>
       </c>
@@ -81019,8 +82026,12 @@
       <c r="T224" s="45">
         <v>23.7</v>
       </c>
-    </row>
-    <row r="225" spans="1:20" ht="192" x14ac:dyDescent="0.2">
+      <c r="V224" s="53" t="str">
+        <f>VLOOKUP($Q224,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="39">
         <v>224</v>
       </c>
@@ -81079,8 +82090,12 @@
       <c r="T225" s="44">
         <v>381</v>
       </c>
-    </row>
-    <row r="226" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V225" s="53" t="str">
+        <f>VLOOKUP($Q225,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services divers</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="39">
         <v>225</v>
       </c>
@@ -81139,8 +82154,12 @@
       <c r="T226" s="42">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="227" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V226" s="53" t="str">
+        <f>VLOOKUP($Q226,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="227" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="39">
         <v>226</v>
       </c>
@@ -81199,8 +82218,12 @@
       <c r="T227" s="42">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="228" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V227" s="53" t="str">
+        <f>VLOOKUP($Q227,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="228" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="39">
         <v>227</v>
       </c>
@@ -81259,8 +82282,12 @@
       <c r="T228" s="44">
         <v>126</v>
       </c>
-    </row>
-    <row r="229" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V228" s="53" t="str">
+        <f>VLOOKUP($Q228,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services publics</v>
+      </c>
+    </row>
+    <row r="229" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="39">
         <v>228</v>
       </c>
@@ -81319,8 +82346,12 @@
       <c r="T229" s="46">
         <v>69.099999999999994</v>
       </c>
-    </row>
-    <row r="230" spans="1:20" ht="144" x14ac:dyDescent="0.2">
+      <c r="V229" s="53" t="str">
+        <f>VLOOKUP($Q229,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="39">
         <v>229</v>
       </c>
@@ -81379,8 +82410,12 @@
       <c r="T230" s="42">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="231" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V230" s="53" t="str">
+        <f>VLOOKUP($Q230,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="231" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="39">
         <v>230</v>
       </c>
@@ -81441,8 +82476,12 @@
       <c r="T231" s="41">
         <v>53.5</v>
       </c>
-    </row>
-    <row r="232" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="V231" s="53" t="str">
+        <f>VLOOKUP($Q231,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="232" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="39">
         <v>231</v>
       </c>
@@ -81503,8 +82542,12 @@
       <c r="T232" s="46">
         <v>74.2</v>
       </c>
-    </row>
-    <row r="233" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V232" s="53" t="str">
+        <f>VLOOKUP($Q232,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="233" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="39">
         <v>232</v>
       </c>
@@ -81565,8 +82608,12 @@
       <c r="T233" s="44">
         <v>133</v>
       </c>
-    </row>
-    <row r="234" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V233" s="53" t="str">
+        <f>VLOOKUP($Q233,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="234" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="39">
         <v>233</v>
       </c>
@@ -81625,8 +82672,12 @@
       <c r="T234" s="44">
         <v>128</v>
       </c>
-    </row>
-    <row r="235" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V234" s="53" t="str">
+        <f>VLOOKUP($Q234,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="235" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="39">
         <v>234</v>
       </c>
@@ -81685,8 +82736,12 @@
       <c r="T235" s="42">
         <v>15</v>
       </c>
-    </row>
-    <row r="236" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V235" s="53" t="str">
+        <f>VLOOKUP($Q235,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="236" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="39">
         <v>235</v>
       </c>
@@ -81745,8 +82800,12 @@
       <c r="T236" s="42">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="237" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V236" s="53" t="str">
+        <f>VLOOKUP($Q236,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services publics</v>
+      </c>
+    </row>
+    <row r="237" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="39">
         <v>236</v>
       </c>
@@ -81805,8 +82864,12 @@
       <c r="T237" s="41">
         <v>41.3</v>
       </c>
-    </row>
-    <row r="238" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V237" s="53" t="str">
+        <f>VLOOKUP($Q237,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="238" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="39">
         <v>237</v>
       </c>
@@ -81865,8 +82928,12 @@
       <c r="T238" s="44">
         <v>208</v>
       </c>
-    </row>
-    <row r="239" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V238" s="53" t="str">
+        <f>VLOOKUP($Q238,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services publics</v>
+      </c>
+    </row>
+    <row r="239" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="39">
         <v>238</v>
       </c>
@@ -81925,8 +82992,12 @@
       <c r="T239" s="44">
         <v>228</v>
       </c>
-    </row>
-    <row r="240" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V239" s="53" t="str">
+        <f>VLOOKUP($Q239,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services publics</v>
+      </c>
+    </row>
+    <row r="240" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="39">
         <v>239</v>
       </c>
@@ -81985,8 +83056,12 @@
       <c r="T240" s="44">
         <v>109</v>
       </c>
-    </row>
-    <row r="241" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V240" s="53" t="str">
+        <f>VLOOKUP($Q240,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="241" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="39">
         <v>240</v>
       </c>
@@ -82045,8 +83120,12 @@
       <c r="T241" s="44">
         <v>253</v>
       </c>
-    </row>
-    <row r="242" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V241" s="53" t="str">
+        <f>VLOOKUP($Q241,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services publics</v>
+      </c>
+    </row>
+    <row r="242" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="39">
         <v>241</v>
       </c>
@@ -82105,8 +83184,12 @@
       <c r="T242" s="45">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="243" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V242" s="53" t="str">
+        <f>VLOOKUP($Q242,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="243" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="39">
         <v>242</v>
       </c>
@@ -82165,8 +83248,12 @@
       <c r="T243" s="42">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="244" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V243" s="53" t="str">
+        <f>VLOOKUP($Q243,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="244" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="39">
         <v>243</v>
       </c>
@@ -82225,8 +83312,12 @@
       <c r="T244" s="46">
         <v>63.3</v>
       </c>
-    </row>
-    <row r="245" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V244" s="53" t="str">
+        <f>VLOOKUP($Q244,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services publics</v>
+      </c>
+    </row>
+    <row r="245" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="39">
         <v>244</v>
       </c>
@@ -82285,8 +83376,12 @@
       <c r="T245" s="42">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="246" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="V245" s="53" t="str">
+        <f>VLOOKUP($Q245,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services publics</v>
+      </c>
+    </row>
+    <row r="246" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="39">
         <v>245</v>
       </c>
@@ -82345,8 +83440,12 @@
       <c r="T246" s="45">
         <v>26.8</v>
       </c>
-    </row>
-    <row r="247" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V246" s="53" t="str">
+        <f>VLOOKUP($Q246,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="247" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="39">
         <v>246</v>
       </c>
@@ -82405,8 +83504,12 @@
       <c r="T247" s="45">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="248" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V247" s="53" t="str">
+        <f>VLOOKUP($Q247,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="248" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="39">
         <v>247</v>
       </c>
@@ -82465,8 +83568,12 @@
       <c r="T248" s="42">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="249" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V248" s="53" t="str">
+        <f>VLOOKUP($Q248,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="249" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="39">
         <v>248</v>
       </c>
@@ -82525,8 +83632,12 @@
       <c r="T249" s="45">
         <v>23.6</v>
       </c>
-    </row>
-    <row r="250" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V249" s="53" t="str">
+        <f>VLOOKUP($Q249,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="39">
         <v>249</v>
       </c>
@@ -82585,8 +83696,12 @@
       <c r="T250" s="45">
         <v>37.4</v>
       </c>
-    </row>
-    <row r="251" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V250" s="53" t="str">
+        <f>VLOOKUP($Q250,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="39">
         <v>250</v>
       </c>
@@ -82645,8 +83760,12 @@
       <c r="T251" s="42">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="252" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V251" s="53" t="str">
+        <f>VLOOKUP($Q251,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="39">
         <v>251</v>
       </c>
@@ -82705,8 +83824,12 @@
       <c r="T252" s="44">
         <v>156</v>
       </c>
-    </row>
-    <row r="253" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+      <c r="V252" s="53" t="str">
+        <f>VLOOKUP($Q252,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="39">
         <v>252</v>
       </c>
@@ -82765,8 +83888,12 @@
       <c r="T253" s="46">
         <v>60.6</v>
       </c>
-    </row>
-    <row r="254" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V253" s="53" t="str">
+        <f>VLOOKUP($Q253,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="39">
         <v>253</v>
       </c>
@@ -82825,8 +83952,12 @@
       <c r="T254" s="42">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="255" spans="1:20" ht="350" x14ac:dyDescent="0.2">
+      <c r="V254" s="53" t="str">
+        <f>VLOOKUP($Q254,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="39">
         <v>254</v>
       </c>
@@ -82885,8 +84016,12 @@
       <c r="T255" s="44">
         <v>303</v>
       </c>
-    </row>
-    <row r="256" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V255" s="53" t="str">
+        <f>VLOOKUP($Q255,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="39">
         <v>255</v>
       </c>
@@ -82945,8 +84080,12 @@
       <c r="T256" s="41">
         <v>54.8</v>
       </c>
-    </row>
-    <row r="257" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V256" s="53" t="str">
+        <f>VLOOKUP($Q256,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="39">
         <v>256</v>
       </c>
@@ -83005,8 +84144,12 @@
       <c r="T257" s="44">
         <v>105</v>
       </c>
-    </row>
-    <row r="258" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V257" s="53" t="str">
+        <f>VLOOKUP($Q257,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="258" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="39">
         <v>257</v>
       </c>
@@ -83065,8 +84208,12 @@
       <c r="T258" s="41">
         <v>48.7</v>
       </c>
-    </row>
-    <row r="259" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V258" s="53" t="str">
+        <f>VLOOKUP($Q258,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="259" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="39">
         <v>258</v>
       </c>
@@ -83125,8 +84272,12 @@
       <c r="T259" s="42">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="260" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V259" s="53" t="str">
+        <f>VLOOKUP($Q259,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="260" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="39">
         <v>259</v>
       </c>
@@ -83185,8 +84336,12 @@
       <c r="T260" s="45">
         <v>35.1</v>
       </c>
-    </row>
-    <row r="261" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="V260" s="53" t="str">
+        <f>VLOOKUP($Q260,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="261" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="39">
         <v>260</v>
       </c>
@@ -83245,8 +84400,12 @@
       <c r="T261" s="42">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="262" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V261" s="53" t="str">
+        <f>VLOOKUP($Q261,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="262" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="39">
         <v>261</v>
       </c>
@@ -83305,8 +84464,12 @@
       <c r="T262" s="45">
         <v>25.3</v>
       </c>
-    </row>
-    <row r="263" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V262" s="53" t="str">
+        <f>VLOOKUP($Q262,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="263" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="39">
         <v>262</v>
       </c>
@@ -83365,8 +84528,12 @@
       <c r="T263" s="45">
         <v>29.6</v>
       </c>
-    </row>
-    <row r="264" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V263" s="53" t="str">
+        <f>VLOOKUP($Q263,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="264" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="39">
         <v>263</v>
       </c>
@@ -83425,8 +84592,12 @@
       <c r="T264" s="45">
         <v>29</v>
       </c>
-    </row>
-    <row r="265" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V264" s="53" t="str">
+        <f>VLOOKUP($Q264,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Sidérurgie</v>
+      </c>
+    </row>
+    <row r="265" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="39">
         <v>264</v>
       </c>
@@ -83485,8 +84656,12 @@
       <c r="T265" s="42">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="266" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V265" s="53" t="str">
+        <f>VLOOKUP($Q265,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="266" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="39">
         <v>265</v>
       </c>
@@ -83545,8 +84720,12 @@
       <c r="T266" s="41">
         <v>57.4</v>
       </c>
-    </row>
-    <row r="267" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V266" s="53" t="str">
+        <f>VLOOKUP($Q266,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="267" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="39">
         <v>266</v>
       </c>
@@ -83605,8 +84784,12 @@
       <c r="T267" s="44">
         <v>143</v>
       </c>
-    </row>
-    <row r="268" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V267" s="53" t="str">
+        <f>VLOOKUP($Q267,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="268" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="39">
         <v>267</v>
       </c>
@@ -83665,8 +84848,12 @@
       <c r="T268" s="45">
         <v>38.799999999999997</v>
       </c>
-    </row>
-    <row r="269" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V268" s="53" t="str">
+        <f>VLOOKUP($Q268,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="269" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="39">
         <v>268</v>
       </c>
@@ -83725,8 +84912,12 @@
       <c r="T269" s="44">
         <v>275</v>
       </c>
-    </row>
-    <row r="270" spans="1:20" ht="112" x14ac:dyDescent="0.2">
+      <c r="V269" s="53" t="str">
+        <f>VLOOKUP($Q269,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="270" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="39">
         <v>269</v>
       </c>
@@ -83785,8 +84976,12 @@
       <c r="T270" s="45">
         <v>26.3</v>
       </c>
-    </row>
-    <row r="271" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V270" s="53" t="str">
+        <f>VLOOKUP($Q270,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="271" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="39">
         <v>270</v>
       </c>
@@ -83845,8 +85040,12 @@
       <c r="T271" s="46">
         <v>83.8</v>
       </c>
-    </row>
-    <row r="272" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V271" s="53" t="str">
+        <f>VLOOKUP($Q271,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="272" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="39">
         <v>271</v>
       </c>
@@ -83905,8 +85104,12 @@
       <c r="T272" s="42">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="273" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V272" s="53" t="str">
+        <f>VLOOKUP($Q272,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="273" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="39">
         <v>272</v>
       </c>
@@ -83965,8 +85168,12 @@
       <c r="T273" s="45">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="274" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+      <c r="V273" s="53" t="str">
+        <f>VLOOKUP($Q273,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="274" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="39">
         <v>273</v>
       </c>
@@ -84025,8 +85232,12 @@
       <c r="T274" s="42">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="275" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V274" s="53" t="str">
+        <f>VLOOKUP($Q274,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="275" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="39">
         <v>274</v>
       </c>
@@ -84085,8 +85296,12 @@
       <c r="T275" s="45">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="276" spans="1:20" ht="350" x14ac:dyDescent="0.2">
+      <c r="V275" s="53" t="str">
+        <f>VLOOKUP($Q275,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services divers</v>
+      </c>
+    </row>
+    <row r="276" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="39">
         <v>275</v>
       </c>
@@ -84145,8 +85360,12 @@
       <c r="T276" s="41">
         <v>57.8</v>
       </c>
-    </row>
-    <row r="277" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V276" s="53" t="str">
+        <f>VLOOKUP($Q276,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="277" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="39">
         <v>276</v>
       </c>
@@ -84205,8 +85424,12 @@
       <c r="T277" s="42">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="278" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V277" s="53" t="str">
+        <f>VLOOKUP($Q277,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="278" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="39">
         <v>277</v>
       </c>
@@ -84265,8 +85488,12 @@
       <c r="T278" s="42">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="279" spans="1:20" ht="192" x14ac:dyDescent="0.2">
+      <c r="V278" s="53" t="str">
+        <f>VLOOKUP($Q278,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="279" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="39">
         <v>278</v>
       </c>
@@ -84325,8 +85552,12 @@
       <c r="T279" s="45">
         <v>27.8</v>
       </c>
-    </row>
-    <row r="280" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V279" s="53" t="str">
+        <f>VLOOKUP($Q279,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="280" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="39">
         <v>279</v>
       </c>
@@ -84385,8 +85616,12 @@
       <c r="T280" s="45">
         <v>34.4</v>
       </c>
-    </row>
-    <row r="281" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V280" s="53" t="str">
+        <f>VLOOKUP($Q280,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="281" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="39">
         <v>280</v>
       </c>
@@ -84445,8 +85680,12 @@
       <c r="T281" s="44">
         <v>211</v>
       </c>
-    </row>
-    <row r="282" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V281" s="53" t="str">
+        <f>VLOOKUP($Q281,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="282" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="39">
         <v>281</v>
       </c>
@@ -84505,8 +85744,12 @@
       <c r="T282" s="44">
         <v>375</v>
       </c>
-    </row>
-    <row r="283" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+      <c r="V282" s="53" t="str">
+        <f>VLOOKUP($Q282,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="283" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="39">
         <v>282</v>
       </c>
@@ -84565,8 +85808,12 @@
       <c r="T283" s="42">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="284" spans="1:20" ht="240" x14ac:dyDescent="0.2">
+      <c r="V283" s="53" t="str">
+        <f>VLOOKUP($Q283,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="284" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="39">
         <v>283</v>
       </c>
@@ -84621,8 +85868,12 @@
       <c r="T284" s="42">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="285" spans="1:20" ht="350" x14ac:dyDescent="0.2">
+      <c r="V284" s="53" t="str">
+        <f>VLOOKUP($Q284,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="285" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="39">
         <v>284</v>
       </c>
@@ -84681,8 +85932,12 @@
       <c r="T285" s="41">
         <v>42.6</v>
       </c>
-    </row>
-    <row r="286" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V285" s="53" t="str">
+        <f>VLOOKUP($Q285,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="286" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="39">
         <v>285</v>
       </c>
@@ -84741,8 +85996,12 @@
       <c r="T286" s="42">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="287" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V286" s="53" t="str">
+        <f>VLOOKUP($Q286,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="287" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="39">
         <v>286</v>
       </c>
@@ -84801,8 +86060,12 @@
       <c r="T287" s="44">
         <v>134</v>
       </c>
-    </row>
-    <row r="288" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V287" s="53" t="str">
+        <f>VLOOKUP($Q287,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services publics</v>
+      </c>
+    </row>
+    <row r="288" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="39">
         <v>287</v>
       </c>
@@ -84861,8 +86124,12 @@
       <c r="T288" s="46">
         <v>82.7</v>
       </c>
-    </row>
-    <row r="289" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V288" s="53" t="str">
+        <f>VLOOKUP($Q288,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="289" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="39">
         <v>288</v>
       </c>
@@ -84921,8 +86188,12 @@
       <c r="T289" s="45">
         <v>31.4</v>
       </c>
-    </row>
-    <row r="290" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V289" s="53" t="str">
+        <f>VLOOKUP($Q289,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="290" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="39">
         <v>289</v>
       </c>
@@ -84981,8 +86252,12 @@
       <c r="T290" s="45">
         <v>37.6</v>
       </c>
-    </row>
-    <row r="291" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V290" s="53" t="str">
+        <f>VLOOKUP($Q290,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="291" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="39">
         <v>290</v>
       </c>
@@ -85041,8 +86316,12 @@
       <c r="T291" s="44">
         <v>112</v>
       </c>
-    </row>
-    <row r="292" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V291" s="53" t="str">
+        <f>VLOOKUP($Q291,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="292" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="39">
         <v>291</v>
       </c>
@@ -85101,8 +86380,12 @@
       <c r="T292" s="42">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="293" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V292" s="53" t="str">
+        <f>VLOOKUP($Q292,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="293" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="39">
         <v>292</v>
       </c>
@@ -85161,8 +86444,12 @@
       <c r="T293" s="41">
         <v>46.2</v>
       </c>
-    </row>
-    <row r="294" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V293" s="53" t="str">
+        <f>VLOOKUP($Q293,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="294" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="39">
         <v>293</v>
       </c>
@@ -85221,8 +86508,12 @@
       <c r="T294" s="46">
         <v>73.8</v>
       </c>
-    </row>
-    <row r="295" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V294" s="53" t="str">
+        <f>VLOOKUP($Q294,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="295" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="39">
         <v>294</v>
       </c>
@@ -85281,8 +86572,12 @@
       <c r="T295" s="44">
         <v>107</v>
       </c>
-    </row>
-    <row r="296" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V295" s="53" t="str">
+        <f>VLOOKUP($Q295,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services publics</v>
+      </c>
+    </row>
+    <row r="296" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="39">
         <v>295</v>
       </c>
@@ -85341,8 +86636,12 @@
       <c r="T296" s="46">
         <v>73.8</v>
       </c>
-    </row>
-    <row r="297" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="V296" s="53" t="str">
+        <f>VLOOKUP($Q296,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="297" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="39">
         <v>296</v>
       </c>
@@ -85401,8 +86700,12 @@
       <c r="T297" s="42">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="298" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="V297" s="53" t="str">
+        <f>VLOOKUP($Q297,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services publics</v>
+      </c>
+    </row>
+    <row r="298" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="39">
         <v>297</v>
       </c>
@@ -85461,8 +86764,12 @@
       <c r="T298" s="46">
         <v>83.6</v>
       </c>
-    </row>
-    <row r="299" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V298" s="53" t="str">
+        <f>VLOOKUP($Q298,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services publics</v>
+      </c>
+    </row>
+    <row r="299" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="39">
         <v>298</v>
       </c>
@@ -85521,8 +86828,12 @@
       <c r="T299" s="42">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="300" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V299" s="53" t="str">
+        <f>VLOOKUP($Q299,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="300" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="39">
         <v>299</v>
       </c>
@@ -85581,8 +86892,12 @@
       <c r="T300" s="46">
         <v>83.8</v>
       </c>
-    </row>
-    <row r="301" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V300" s="53" t="str">
+        <f>VLOOKUP($Q300,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services publics</v>
+      </c>
+    </row>
+    <row r="301" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="39">
         <v>300</v>
       </c>
@@ -85641,8 +86956,12 @@
       <c r="T301" s="46">
         <v>79.2</v>
       </c>
-    </row>
-    <row r="302" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V301" s="53" t="str">
+        <f>VLOOKUP($Q301,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services publics</v>
+      </c>
+    </row>
+    <row r="302" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="39">
         <v>301</v>
       </c>
@@ -85701,8 +87020,12 @@
       <c r="T302" s="42">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="303" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V302" s="53" t="str">
+        <f>VLOOKUP($Q302,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="303" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="39">
         <v>302</v>
       </c>
@@ -85761,8 +87084,12 @@
       <c r="T303" s="44">
         <v>108</v>
       </c>
-    </row>
-    <row r="304" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V303" s="53" t="str">
+        <f>VLOOKUP($Q303,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services publics</v>
+      </c>
+    </row>
+    <row r="304" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="39">
         <v>303</v>
       </c>
@@ -85821,8 +87148,12 @@
       <c r="T304" s="42">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="305" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V304" s="53" t="str">
+        <f>VLOOKUP($Q304,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="305" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="39">
         <v>304</v>
       </c>
@@ -85881,8 +87212,12 @@
       <c r="T305" s="41">
         <v>43.4</v>
       </c>
-    </row>
-    <row r="306" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V305" s="53" t="str">
+        <f>VLOOKUP($Q305,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="306" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="39">
         <v>305</v>
       </c>
@@ -85941,8 +87276,12 @@
       <c r="T306" s="42">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="307" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V306" s="53" t="str">
+        <f>VLOOKUP($Q306,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="307" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="39">
         <v>306</v>
       </c>
@@ -86003,8 +87342,12 @@
       <c r="T307" s="46">
         <v>91.2</v>
       </c>
-    </row>
-    <row r="308" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V307" s="53" t="str">
+        <f>VLOOKUP($Q307,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="308" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="39">
         <v>307</v>
       </c>
@@ -86063,8 +87406,12 @@
       <c r="T308" s="42">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="309" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V308" s="53" t="str">
+        <f>VLOOKUP($Q308,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="309" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="39">
         <v>308</v>
       </c>
@@ -86123,8 +87470,12 @@
       <c r="T309" s="44">
         <v>192</v>
       </c>
-    </row>
-    <row r="310" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V309" s="53" t="str">
+        <f>VLOOKUP($Q309,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services divers</v>
+      </c>
+    </row>
+    <row r="310" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="39">
         <v>309</v>
       </c>
@@ -86183,8 +87534,12 @@
       <c r="T310" s="44">
         <v>169</v>
       </c>
-    </row>
-    <row r="311" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V310" s="53" t="str">
+        <f>VLOOKUP($Q310,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="311" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="39">
         <v>310</v>
       </c>
@@ -86243,8 +87598,12 @@
       <c r="T311" s="45">
         <v>23.7</v>
       </c>
-    </row>
-    <row r="312" spans="1:20" ht="350" x14ac:dyDescent="0.2">
+      <c r="V311" s="53" t="str">
+        <f>VLOOKUP($Q311,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="312" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="39">
         <v>311</v>
       </c>
@@ -86303,8 +87662,12 @@
       <c r="T312" s="41">
         <v>44.1</v>
       </c>
-    </row>
-    <row r="313" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V312" s="53" t="str">
+        <f>VLOOKUP($Q312,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="313" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="39">
         <v>312</v>
       </c>
@@ -86363,8 +87726,12 @@
       <c r="T313" s="44">
         <v>147</v>
       </c>
-    </row>
-    <row r="314" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+      <c r="V313" s="53" t="str">
+        <f>VLOOKUP($Q313,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="314" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="39">
         <v>313</v>
       </c>
@@ -86423,8 +87790,12 @@
       <c r="T314" s="46">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="315" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V314" s="53" t="str">
+        <f>VLOOKUP($Q314,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services publics</v>
+      </c>
+    </row>
+    <row r="315" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="39">
         <v>314</v>
       </c>
@@ -86483,8 +87854,12 @@
       <c r="T315" s="42">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="316" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V315" s="53" t="str">
+        <f>VLOOKUP($Q315,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="316" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="39">
         <v>315</v>
       </c>
@@ -86543,8 +87918,12 @@
       <c r="T316" s="44">
         <v>101</v>
       </c>
-    </row>
-    <row r="317" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V316" s="53" t="str">
+        <f>VLOOKUP($Q316,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="317" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="39">
         <v>316</v>
       </c>
@@ -86605,8 +87984,12 @@
       <c r="T317" s="45">
         <v>28.1</v>
       </c>
-    </row>
-    <row r="318" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V317" s="53" t="str">
+        <f>VLOOKUP($Q317,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services publics</v>
+      </c>
+    </row>
+    <row r="318" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="39">
         <v>317</v>
       </c>
@@ -86665,8 +88048,12 @@
       <c r="T318" s="45">
         <v>23</v>
       </c>
-    </row>
-    <row r="319" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V318" s="53" t="str">
+        <f>VLOOKUP($Q318,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="319" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="39">
         <v>318</v>
       </c>
@@ -86725,8 +88112,12 @@
       <c r="T319" s="42">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="320" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="V319" s="53" t="str">
+        <f>VLOOKUP($Q319,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="320" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="39">
         <v>319</v>
       </c>
@@ -86785,8 +88176,12 @@
       <c r="T320" s="46">
         <v>74.099999999999994</v>
       </c>
-    </row>
-    <row r="321" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="V320" s="53" t="str">
+        <f>VLOOKUP($Q320,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services publics</v>
+      </c>
+    </row>
+    <row r="321" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="39">
         <v>320</v>
       </c>
@@ -86845,8 +88240,12 @@
       <c r="T321" s="45">
         <v>29.1</v>
       </c>
-    </row>
-    <row r="322" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V321" s="53" t="str">
+        <f>VLOOKUP($Q321,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="322" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="39">
         <v>321</v>
       </c>
@@ -86905,8 +88304,12 @@
       <c r="T322" s="42">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="323" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V322" s="53" t="str">
+        <f>VLOOKUP($Q322,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="323" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="39">
         <v>322</v>
       </c>
@@ -86965,8 +88368,12 @@
       <c r="T323" s="42">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="324" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V323" s="53" t="str">
+        <f>VLOOKUP($Q323,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="324" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="39">
         <v>323</v>
       </c>
@@ -87025,8 +88432,12 @@
       <c r="T324" s="42">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="325" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V324" s="53" t="str">
+        <f>VLOOKUP($Q324,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="325" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="39">
         <v>324</v>
       </c>
@@ -87087,8 +88498,12 @@
       <c r="T325" s="44">
         <v>181</v>
       </c>
-    </row>
-    <row r="326" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V325" s="53" t="str">
+        <f>VLOOKUP($Q325,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="326" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="39">
         <v>325</v>
       </c>
@@ -87147,8 +88562,12 @@
       <c r="T326" s="42">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="327" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+      <c r="V326" s="53" t="str">
+        <f>VLOOKUP($Q326,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="327" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="39">
         <v>326</v>
       </c>
@@ -87209,8 +88628,12 @@
       <c r="T327" s="42">
         <v>12</v>
       </c>
-    </row>
-    <row r="328" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="V327" s="53" t="str">
+        <f>VLOOKUP($Q327,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="328" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="39">
         <v>327</v>
       </c>
@@ -87269,17 +88692,460 @@
       <c r="T328" s="46">
         <v>75.900000000000006</v>
       </c>
+      <c r="V328" s="53" t="str">
+        <f>VLOOKUP($Q328,Feuil1!$A$1:$B$48,2,FALSE)</f>
+        <v>Services divers</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="Q1:Q328" xr:uid="{20C00324-6E7F-A947-B567-6051050320A6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066CF608-4AE8-1847-AF49-EB95B271795B}">
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="2" max="2" width="52.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
+        <v>5017</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>5018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="52" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>5019</v>
+      </c>
+      <c r="D2" t="str" cm="1">
+        <f t="array" ref="D2:D12">_xlfn.UNIQUE(B2:B48)</f>
+        <v>Industrie du papier et des matériaux</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
+        <v>4607</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>5020</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Gestion des déchets</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="52" t="s">
+        <v>4610</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>5021</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Énergie et production de chaleur</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
+        <v>4080</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>5022</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Alimentation et agriculture</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="52" t="s">
+        <v>4089</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>5022</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Industrie chimique</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="52" t="s">
+        <v>4617</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>5023</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Immobilier</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="52" t="s">
+        <v>4099</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>5023</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Services divers</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="52" t="s">
+        <v>4105</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>5023</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Sidérurgie</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="52" t="s">
+        <v>5024</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>5023</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Transport et automobile</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="52" t="s">
+        <v>4114</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>5023</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Services publics</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="52" t="s">
+        <v>4121</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>5019</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Autre</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="52" t="s">
+        <v>4639</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="52" t="s">
+        <v>4149</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="52" t="s">
+        <v>4164</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>5025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="52" t="s">
+        <v>4173</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="52" t="s">
+        <v>4195</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="52" t="s">
+        <v>4671</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="52" t="s">
+        <v>4677</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="52" t="s">
+        <v>4679</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>5026</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="52" t="s">
+        <v>4685</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>4685</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="52" t="s">
+        <v>4234</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="52" t="s">
+        <v>4717</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>4685</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="52" t="s">
+        <v>5027</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="52" t="s">
+        <v>4722</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>5026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="52" t="s">
+        <v>4270</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>4685</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="52" t="s">
+        <v>4730</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>5028</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="52" t="s">
+        <v>4734</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="52" t="s">
+        <v>5030</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>5026</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="52" t="s">
+        <v>4741</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="52" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>5028</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="52" t="s">
+        <v>5031</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="52" t="s">
+        <v>4749</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>5026</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="52" t="s">
+        <v>4754</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="52" t="s">
+        <v>4779</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>5028</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="52" t="s">
+        <v>4811</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="52" t="s">
+        <v>4814</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>5028</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="52" t="s">
+        <v>4849</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>4685</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="52" t="s">
+        <v>4868</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="52" t="s">
+        <v>4437</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="52" t="s">
+        <v>4457</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="52" t="s">
+        <v>4928</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="52" t="s">
+        <v>4522</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="52" t="s">
+        <v>4530</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="52" t="s">
+        <v>4536</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="52" t="s">
+        <v>4967</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="52" t="s">
+        <v>4572</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>5026</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="52" t="s">
+        <v>5032</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>5032</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94065EB9-F591-0C4B-BE49-637E0C5B8231}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -87348,7 +89214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0799F6-5FED-9C42-B0E2-7BA8DE305628}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -87644,7 +89510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4B1619-83D7-4C9B-B5A8-B1563ADBED21}">
   <dimension ref="K4:O24"/>
   <sheetViews>
@@ -87883,7 +89749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133357CF-10A1-4D75-993B-B8430B70396B}">
   <dimension ref="A1:K46"/>
   <sheetViews>

--- a/data/bio_co2.xlsx
+++ b/data/bio_co2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keynedupont/Desktop/Drive/Pro/Aktan/Projets/GRT/Projets/Valorisation C02/Atelier #1/Prototypes/CO2_map/BioCO2_map/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5340AA-CF72-704C-AD8B-F4E25470572A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E9FEC3-9A01-3543-A124-474172429218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rebours_" sheetId="5" r:id="rId1"/>
@@ -88698,10 +88698,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066CF608-4AE8-1847-AF49-EB95B271795B}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -88710,7 +88710,7 @@
     <col min="2" max="2" width="52.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
         <v>5015</v>
       </c>
@@ -88718,7 +88718,7 @@
         <v>5016</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
         <v>4069</v>
       </c>
@@ -88730,7 +88730,7 @@
         <v>Industrie du papier et des matériaux</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="50" t="s">
         <v>4605</v>
       </c>
@@ -88741,7 +88741,7 @@
         <v>Gestion des déchets</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
         <v>4608</v>
       </c>
@@ -88752,7 +88752,7 @@
         <v>Énergie et production de chaleur</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
         <v>4078</v>
       </c>
@@ -88763,7 +88763,7 @@
         <v>Alimentation et agriculture</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
         <v>4087</v>
       </c>
@@ -88774,7 +88774,7 @@
         <v>Industrie chimique</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
         <v>4615</v>
       </c>
@@ -88785,7 +88785,7 @@
         <v>Immobilier</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
         <v>4097</v>
       </c>
@@ -88796,7 +88796,7 @@
         <v>Services divers</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="50" t="s">
         <v>4103</v>
       </c>
@@ -88807,7 +88807,7 @@
         <v>Sidérurgie</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
         <v>5022</v>
       </c>
@@ -88818,7 +88818,7 @@
         <v>Transport et automobile</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
         <v>4112</v>
       </c>
@@ -88829,7 +88829,7 @@
         <v>Services publics</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
         <v>4119</v>
       </c>
@@ -88840,15 +88840,18 @@
         <v>Autre</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="50" t="s">
         <v>4637</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>5018</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>27066</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="50" t="s">
         <v>4147</v>
       </c>
@@ -88856,7 +88859,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="50" t="s">
         <v>4162</v>
       </c>
@@ -88864,7 +88867,7 @@
         <v>5023</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="50" t="s">
         <v>4171</v>
       </c>
@@ -89208,8 +89211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0799F6-5FED-9C42-B0E2-7BA8DE305628}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView zoomScale="264" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/bio_co2.xlsx
+++ b/data/bio_co2.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keynedupont/Desktop/Drive/Pro/Aktan/Projets/GRT/Projets/Valorisation C02/Atelier #1/Prototypes/CO2_map/BioCO2_map/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keynedupont/Desktop/Drive/Pro/Aktan/Projets/GRTgaz/Projets/Valorisation bio CO2/Atelier #2/BioCO2_map/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E9FEC3-9A01-3543-A124-474172429218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5DBA74-ED45-CB4F-871E-024F7C6176F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rebours_" sheetId="5" r:id="rId1"/>
     <sheet name="Injections_" sheetId="6" r:id="rId2"/>
     <sheet name="Industriels_" sheetId="7" r:id="rId3"/>
     <sheet name="Feuil1" sheetId="10" r:id="rId4"/>
-    <sheet name="Zibacs_" sheetId="8" r:id="rId5"/>
-    <sheet name="Fermentations_" sheetId="9" r:id="rId6"/>
-    <sheet name="Fermentations" sheetId="4" r:id="rId7"/>
-    <sheet name="Pyrogazéifications" sheetId="2" r:id="rId8"/>
+    <sheet name="Menuiseries_" sheetId="11" r:id="rId5"/>
+    <sheet name="Zibacs_" sheetId="8" r:id="rId6"/>
+    <sheet name="Fermentations_" sheetId="9" r:id="rId7"/>
+    <sheet name="Fermentations" sheetId="4" r:id="rId8"/>
+    <sheet name="Pyrogazéifications" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Industriels_!$Q$1:$Q$328</definedName>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12883" uniqueCount="5032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12926" uniqueCount="5072">
   <si>
     <t>Nom du projet</t>
   </si>
@@ -15165,6 +15166,126 @@
   </si>
   <si>
     <t>Libéllé_simple</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Exploitations Forestières et Scierie Pageot SA</t>
+  </si>
+  <si>
+    <t>48.16364</t>
+  </si>
+  <si>
+    <t>4.01140</t>
+  </si>
+  <si>
+    <t>48.24476</t>
+  </si>
+  <si>
+    <t>3.63106</t>
+  </si>
+  <si>
+    <t>Scierie Du Pays d'Othe</t>
+  </si>
+  <si>
+    <t>Scierie des Essards SAS</t>
+  </si>
+  <si>
+    <t>48.12158</t>
+  </si>
+  <si>
+    <t>3.92037</t>
+  </si>
+  <si>
+    <t>Scierie de Buchères</t>
+  </si>
+  <si>
+    <t>48.26954</t>
+  </si>
+  <si>
+    <t>4.13031</t>
+  </si>
+  <si>
+    <t>47.99010</t>
+  </si>
+  <si>
+    <t>Scierie de Beauvoir</t>
+  </si>
+  <si>
+    <t>4.29590</t>
+  </si>
+  <si>
+    <t>Scierie Collignon</t>
+  </si>
+  <si>
+    <t>48.07310</t>
+  </si>
+  <si>
+    <t>3.91821</t>
+  </si>
+  <si>
+    <t>Ntbois</t>
+  </si>
+  <si>
+    <t>48.24692</t>
+  </si>
+  <si>
+    <t>3.74721</t>
+  </si>
+  <si>
+    <t>Scierie Mulat Frères</t>
+  </si>
+  <si>
+    <t>48.53926</t>
+  </si>
+  <si>
+    <t>4.40495</t>
+  </si>
+  <si>
+    <t>Monniot SAS</t>
+  </si>
+  <si>
+    <t>48.43566</t>
+  </si>
+  <si>
+    <t>4.52413</t>
+  </si>
+  <si>
+    <t>Bois et scierie du Vaudois</t>
+  </si>
+  <si>
+    <t>48.17597</t>
+  </si>
+  <si>
+    <t>4.22550</t>
+  </si>
+  <si>
+    <t>Tarteret Philippe SA</t>
+  </si>
+  <si>
+    <t>48.30294</t>
+  </si>
+  <si>
+    <t>3.81092</t>
+  </si>
+  <si>
+    <t>Parquet Chêne</t>
+  </si>
+  <si>
+    <t>48.22451</t>
+  </si>
+  <si>
+    <t>4.00903</t>
+  </si>
+  <si>
+    <t>2 J Scierie</t>
+  </si>
+  <si>
+    <t>48.59709</t>
+  </si>
+  <si>
+    <t>4.24085</t>
   </si>
 </sst>
 </file>
@@ -15174,7 +15295,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15360,6 +15481,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFDF3079"/>
+      <name val="Monaco"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="44">
@@ -15943,7 +16070,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -16064,6 +16191,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -16263,9 +16391,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -16303,7 +16431,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -16409,7 +16537,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -16551,7 +16679,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -16561,7 +16689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E7DBAB-86B8-44F8-8095-DA6680E38937}">
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -19337,7 +19465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F461CDD-496E-134F-8251-CA8609B0039E}">
   <dimension ref="A1:Z625"/>
   <sheetViews>
-    <sheetView topLeftCell="P183" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -88700,7 +88828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066CF608-4AE8-1847-AF49-EB95B271795B}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -89138,18 +89266,196 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4A844C-B76B-7D41-B2D8-57E8EA9D187F}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5032</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5033</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5034</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5038</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5036</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5039</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5040</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5042</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5043</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5046</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5045</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5048</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5049</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5051</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5052</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5054</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5055</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5056</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5057</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5058</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5059</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5060</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5061</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5063</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5064</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5065</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5066</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5067</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5069</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5070</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5071</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="D19" s="52"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94065EB9-F591-0C4B-BE49-637E0C5B8231}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4031</v>
+        <v>2458</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -89207,7 +89513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0799F6-5FED-9C42-B0E2-7BA8DE305628}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -89486,7 +89792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4B1619-83D7-4C9B-B5A8-B1563ADBED21}">
   <dimension ref="K4:O24"/>
   <sheetViews>
@@ -89506,7 +89812,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="5" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="11:15" ht="16" x14ac:dyDescent="0.2">
       <c r="K5" s="9" t="s">
         <v>2432</v>
       </c>
@@ -89529,7 +89835,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="11:15" ht="16" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
         <v>1700</v>
       </c>
@@ -89541,7 +89847,7 @@
       </c>
       <c r="O7" s="26"/>
     </row>
-    <row r="8" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="11:15" ht="16" x14ac:dyDescent="0.2">
       <c r="K8" t="s">
         <v>2436</v>
       </c>
@@ -89555,7 +89861,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="9" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="11:15" ht="16" x14ac:dyDescent="0.2">
       <c r="K9" s="9" t="s">
         <v>2438</v>
       </c>
@@ -89606,7 +89912,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="11:15" ht="16" x14ac:dyDescent="0.2">
       <c r="K13" s="9" t="s">
         <v>2445</v>
       </c>
@@ -89658,7 +89964,7 @@
       <c r="L17" t="s">
         <v>2450</v>
       </c>
-      <c r="M17" s="52">
+      <c r="M17" s="53">
         <v>950</v>
       </c>
     </row>
@@ -89669,7 +89975,7 @@
       <c r="L18" t="s">
         <v>2433</v>
       </c>
-      <c r="M18" s="52"/>
+      <c r="M18" s="53"/>
     </row>
     <row r="19" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K19" t="s">
@@ -89678,7 +89984,7 @@
       <c r="L19" t="s">
         <v>2439</v>
       </c>
-      <c r="M19" s="52"/>
+      <c r="M19" s="53"/>
     </row>
     <row r="20" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K20" t="s">
@@ -89725,11 +90031,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133357CF-10A1-4D75-993B-B8430B70396B}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>

--- a/data/bio_co2.xlsx
+++ b/data/bio_co2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keynedupont/Desktop/Drive/Pro/Aktan/Projets/GRTgaz/Projets/Valorisation bio CO2/Atelier #2/BioCO2_map/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5DBA74-ED45-CB4F-871E-024F7C6176F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CBE5E0-7EF3-2E4E-B826-4485820BADAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rebours_" sheetId="5" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="Industriels_" sheetId="7" r:id="rId3"/>
     <sheet name="Feuil1" sheetId="10" r:id="rId4"/>
     <sheet name="Menuiseries_" sheetId="11" r:id="rId5"/>
-    <sheet name="Zibacs_" sheetId="8" r:id="rId6"/>
-    <sheet name="Fermentations_" sheetId="9" r:id="rId7"/>
-    <sheet name="Fermentations" sheetId="4" r:id="rId8"/>
-    <sheet name="Pyrogazéifications" sheetId="2" r:id="rId9"/>
+    <sheet name="Poi_" sheetId="12" r:id="rId6"/>
+    <sheet name="Zibacs_" sheetId="8" r:id="rId7"/>
+    <sheet name="Fermentations_" sheetId="9" r:id="rId8"/>
+    <sheet name="Fermentations" sheetId="4" r:id="rId9"/>
+    <sheet name="Pyrogazéifications" sheetId="2" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Industriels_!$Q$1:$Q$328</definedName>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12926" uniqueCount="5072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12933" uniqueCount="5075">
   <si>
     <t>Nom du projet</t>
   </si>
@@ -15286,6 +15287,15 @@
   </si>
   <si>
     <t>4.24085</t>
+  </si>
+  <si>
+    <t>48.26731</t>
+  </si>
+  <si>
+    <t>4.05301</t>
+  </si>
+  <si>
+    <t>SEM Énergie</t>
   </si>
 </sst>
 </file>
@@ -19461,6 +19471,1583 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133357CF-10A1-4D75-993B-B8430B70396B}">
+  <dimension ref="A1:K46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D2">
+        <v>72360</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2472</v>
+      </c>
+      <c r="F2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H2">
+        <v>52</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2473</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D3">
+        <v>29279</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2476</v>
+      </c>
+      <c r="F3" t="s">
+        <v>743</v>
+      </c>
+      <c r="G3" t="s">
+        <v>878</v>
+      </c>
+      <c r="H3">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2477</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D4">
+        <v>29019</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2480</v>
+      </c>
+      <c r="F4" t="s">
+        <v>743</v>
+      </c>
+      <c r="G4" t="s">
+        <v>878</v>
+      </c>
+      <c r="H4">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2481</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D5">
+        <v>44179</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2483</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2484</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D6">
+        <v>64300</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2452</v>
+      </c>
+      <c r="F6" t="s">
+        <v>447</v>
+      </c>
+      <c r="G6" t="s">
+        <v>445</v>
+      </c>
+      <c r="H6">
+        <v>75</v>
+      </c>
+      <c r="I6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2486</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D7">
+        <v>67011</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2488</v>
+      </c>
+      <c r="F7" t="s">
+        <v>665</v>
+      </c>
+      <c r="G7" t="s">
+        <v>663</v>
+      </c>
+      <c r="H7">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2489</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D8">
+        <v>87085</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2490</v>
+      </c>
+      <c r="F8" t="s">
+        <v>580</v>
+      </c>
+      <c r="G8" t="s">
+        <v>578</v>
+      </c>
+      <c r="H8">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2491</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D9">
+        <v>69199</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1514</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1512</v>
+      </c>
+      <c r="H9">
+        <v>84</v>
+      </c>
+      <c r="I9" t="s">
+        <v>211</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2495</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D10">
+        <v>26281</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F10" t="s">
+        <v>735</v>
+      </c>
+      <c r="G10" t="s">
+        <v>733</v>
+      </c>
+      <c r="H10">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2498</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D11">
+        <v>71306</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2500</v>
+      </c>
+      <c r="F11" t="s">
+        <v>589</v>
+      </c>
+      <c r="G11" t="s">
+        <v>587</v>
+      </c>
+      <c r="H11">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>221</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2501</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D12">
+        <v>72003</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2503</v>
+      </c>
+      <c r="F12" t="s">
+        <v>335</v>
+      </c>
+      <c r="G12" t="s">
+        <v>336</v>
+      </c>
+      <c r="H12">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2504</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D13">
+        <v>12176</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2506</v>
+      </c>
+      <c r="F13" t="s">
+        <v>534</v>
+      </c>
+      <c r="G13" t="s">
+        <v>532</v>
+      </c>
+      <c r="H13">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2507</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D14">
+        <v>64300</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2452</v>
+      </c>
+      <c r="F14" t="s">
+        <v>447</v>
+      </c>
+      <c r="G14" t="s">
+        <v>445</v>
+      </c>
+      <c r="H14">
+        <v>75</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2486</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D15">
+        <v>69141</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2510</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1514</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1512</v>
+      </c>
+      <c r="H15">
+        <v>84</v>
+      </c>
+      <c r="I15" t="s">
+        <v>211</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2511</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D16">
+        <v>31555</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s">
+        <v>120</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2513</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D17">
+        <v>36044</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2515</v>
+      </c>
+      <c r="F17" t="s">
+        <v>412</v>
+      </c>
+      <c r="G17" t="s">
+        <v>410</v>
+      </c>
+      <c r="H17">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2516</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D18">
+        <v>78624</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F18" t="s">
+        <v>463</v>
+      </c>
+      <c r="G18" t="s">
+        <v>504</v>
+      </c>
+      <c r="H18">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2519</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D19">
+        <v>13047</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2521</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H19">
+        <v>93</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2522</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D20">
+        <v>80289</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2524</v>
+      </c>
+      <c r="F20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2525</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D21">
+        <v>86289</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2527</v>
+      </c>
+      <c r="F21" t="s">
+        <v>528</v>
+      </c>
+      <c r="G21" t="s">
+        <v>526</v>
+      </c>
+      <c r="H21">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s">
+        <v>137</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2528</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D22">
+        <v>71306</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2500</v>
+      </c>
+      <c r="F22" t="s">
+        <v>589</v>
+      </c>
+      <c r="G22" t="s">
+        <v>587</v>
+      </c>
+      <c r="H22">
+        <v>27</v>
+      </c>
+      <c r="I22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2501</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D23">
+        <v>30032</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2531</v>
+      </c>
+      <c r="F23" t="s">
+        <v>738</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H23">
+        <v>93</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J23" t="s">
+        <v>2532</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D24">
+        <v>33498</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2534</v>
+      </c>
+      <c r="F24" t="s">
+        <v>480</v>
+      </c>
+      <c r="G24" t="s">
+        <v>538</v>
+      </c>
+      <c r="H24">
+        <v>75</v>
+      </c>
+      <c r="I24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J24" t="s">
+        <v>2535</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2537</v>
+      </c>
+      <c r="F25" t="s">
+        <v>655</v>
+      </c>
+      <c r="G25" t="s">
+        <v>761</v>
+      </c>
+      <c r="H25">
+        <v>75</v>
+      </c>
+      <c r="I25" t="s">
+        <v>137</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2538</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D26">
+        <v>59326</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F26" t="s">
+        <v>458</v>
+      </c>
+      <c r="G26" t="s">
+        <v>456</v>
+      </c>
+      <c r="H26">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s">
+        <v>145</v>
+      </c>
+      <c r="J26" t="s">
+        <v>2540</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2479</v>
+      </c>
+      <c r="H27">
+        <v>32</v>
+      </c>
+      <c r="I27" t="s">
+        <v>145</v>
+      </c>
+      <c r="J27" t="s">
+        <v>2541</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D28">
+        <v>77118</v>
+      </c>
+      <c r="E28" t="s">
+        <v>923</v>
+      </c>
+      <c r="F28" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28">
+        <v>11</v>
+      </c>
+      <c r="I28" t="s">
+        <v>89</v>
+      </c>
+      <c r="J28" t="s">
+        <v>2542</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D29">
+        <v>54259</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2543</v>
+      </c>
+      <c r="F29" t="s">
+        <v>675</v>
+      </c>
+      <c r="G29" t="s">
+        <v>673</v>
+      </c>
+      <c r="H29">
+        <v>44</v>
+      </c>
+      <c r="I29" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" t="s">
+        <v>2544</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D30">
+        <v>60338</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2546</v>
+      </c>
+      <c r="F30" t="s">
+        <v>495</v>
+      </c>
+      <c r="G30" t="s">
+        <v>493</v>
+      </c>
+      <c r="H30">
+        <v>32</v>
+      </c>
+      <c r="I30" t="s">
+        <v>145</v>
+      </c>
+      <c r="J30" t="s">
+        <v>2547</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2479</v>
+      </c>
+      <c r="F31" t="s">
+        <v>463</v>
+      </c>
+      <c r="G31" t="s">
+        <v>504</v>
+      </c>
+      <c r="H31">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" t="s">
+        <v>2549</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D32">
+        <v>8096</v>
+      </c>
+      <c r="E32" t="s">
+        <v>460</v>
+      </c>
+      <c r="F32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32">
+        <v>44</v>
+      </c>
+      <c r="I32" t="s">
+        <v>78</v>
+      </c>
+      <c r="J32" t="s">
+        <v>2551</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D33">
+        <v>6029</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1320</v>
+      </c>
+      <c r="H33">
+        <v>93</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J33" t="s">
+        <v>2554</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D34">
+        <v>13041</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2556</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H34">
+        <v>93</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J34" t="s">
+        <v>2557</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D35">
+        <v>51507</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F35" t="s">
+        <v>306</v>
+      </c>
+      <c r="G35" t="s">
+        <v>307</v>
+      </c>
+      <c r="H35">
+        <v>44</v>
+      </c>
+      <c r="I35" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35" t="s">
+        <v>2560</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D36">
+        <v>13097</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2561</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H36">
+        <v>93</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J36" t="s">
+        <v>2562</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2479</v>
+      </c>
+      <c r="F37" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" t="s">
+        <v>147</v>
+      </c>
+      <c r="H37">
+        <v>32</v>
+      </c>
+      <c r="I37" t="s">
+        <v>145</v>
+      </c>
+      <c r="J37" t="s">
+        <v>2564</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D38">
+        <v>33517</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F38" t="s">
+        <v>480</v>
+      </c>
+      <c r="G38" t="s">
+        <v>538</v>
+      </c>
+      <c r="H38">
+        <v>75</v>
+      </c>
+      <c r="I38" t="s">
+        <v>137</v>
+      </c>
+      <c r="J38" t="s">
+        <v>2567</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2479</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D40">
+        <v>76351</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F40" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" t="s">
+        <v>679</v>
+      </c>
+      <c r="H40">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" t="s">
+        <v>2570</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D41">
+        <v>44103</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2572</v>
+      </c>
+      <c r="F41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H41">
+        <v>52</v>
+      </c>
+      <c r="I41" t="s">
+        <v>51</v>
+      </c>
+      <c r="J41" t="s">
+        <v>2573</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D42">
+        <v>69266</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1514</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1512</v>
+      </c>
+      <c r="H42">
+        <v>84</v>
+      </c>
+      <c r="I42" t="s">
+        <v>211</v>
+      </c>
+      <c r="J42" t="s">
+        <v>2576</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D43">
+        <v>44109</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2578</v>
+      </c>
+      <c r="F43" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s">
+        <v>175</v>
+      </c>
+      <c r="H43">
+        <v>52</v>
+      </c>
+      <c r="I43" t="s">
+        <v>51</v>
+      </c>
+      <c r="J43" t="s">
+        <v>2579</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D44">
+        <v>35068</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2581</v>
+      </c>
+      <c r="F44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44">
+        <v>53</v>
+      </c>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+      <c r="J44" t="s">
+        <v>2582</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D45">
+        <v>13039</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2584</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H45">
+        <v>93</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J45" t="s">
+        <v>2585</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D46">
+        <v>68375</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2587</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1391</v>
+      </c>
+      <c r="H46">
+        <v>44</v>
+      </c>
+      <c r="I46" t="s">
+        <v>78</v>
+      </c>
+      <c r="J46" t="s">
+        <v>2588</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K317100 Classification GRTgaz : Public [ ] Interne [X] Restreint [ ] Secret [ ]</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F461CDD-496E-134F-8251-CA8609B0039E}">
   <dimension ref="A1:Z625"/>
@@ -89269,8 +90856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4A844C-B76B-7D41-B2D8-57E8EA9D187F}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -89444,6 +91031,84 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD85CC3-0431-C344-AB2D-4900C2949C73}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>5032</v>
+      </c>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>5074</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>5072</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>5073</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94065EB9-F591-0C4B-BE49-637E0C5B8231}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -89513,7 +91178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0799F6-5FED-9C42-B0E2-7BA8DE305628}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -89792,7 +91457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4B1619-83D7-4C9B-B5A8-B1563ADBED21}">
   <dimension ref="K4:O24"/>
   <sheetViews>
@@ -90031,1583 +91696,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133357CF-10A1-4D75-993B-B8430B70396B}">
-  <dimension ref="A1:K46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2458</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2459</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2460</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2461</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2462</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2463</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2464</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2465</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2466</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2467</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2469</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2470</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2471</v>
-      </c>
-      <c r="D2">
-        <v>72360</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2472</v>
-      </c>
-      <c r="F2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G2" t="s">
-        <v>336</v>
-      </c>
-      <c r="H2">
-        <v>52</v>
-      </c>
-      <c r="I2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2473</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2474</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2471</v>
-      </c>
-      <c r="D3">
-        <v>29279</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2476</v>
-      </c>
-      <c r="F3" t="s">
-        <v>743</v>
-      </c>
-      <c r="G3" t="s">
-        <v>878</v>
-      </c>
-      <c r="H3">
-        <v>53</v>
-      </c>
-      <c r="I3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" t="s">
-        <v>2477</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2478</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2470</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D4">
-        <v>29019</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2480</v>
-      </c>
-      <c r="F4" t="s">
-        <v>743</v>
-      </c>
-      <c r="G4" t="s">
-        <v>878</v>
-      </c>
-      <c r="H4">
-        <v>53</v>
-      </c>
-      <c r="I4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" t="s">
-        <v>2481</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2482</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2470</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D5">
-        <v>44179</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2483</v>
-      </c>
-      <c r="F5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H5">
-        <v>52</v>
-      </c>
-      <c r="I5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>2484</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2485</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D6">
-        <v>64300</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2452</v>
-      </c>
-      <c r="F6" t="s">
-        <v>447</v>
-      </c>
-      <c r="G6" t="s">
-        <v>445</v>
-      </c>
-      <c r="H6">
-        <v>75</v>
-      </c>
-      <c r="I6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J6" t="s">
-        <v>2486</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>2487</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2470</v>
-      </c>
-      <c r="D7">
-        <v>67011</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2488</v>
-      </c>
-      <c r="F7" t="s">
-        <v>665</v>
-      </c>
-      <c r="G7" t="s">
-        <v>663</v>
-      </c>
-      <c r="H7">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" t="s">
-        <v>2489</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>2490</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D8">
-        <v>87085</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2490</v>
-      </c>
-      <c r="F8" t="s">
-        <v>580</v>
-      </c>
-      <c r="G8" t="s">
-        <v>578</v>
-      </c>
-      <c r="H8">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J8" t="s">
-        <v>2491</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>2492</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2493</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D9">
-        <v>69199</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2494</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1514</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1512</v>
-      </c>
-      <c r="H9">
-        <v>84</v>
-      </c>
-      <c r="I9" t="s">
-        <v>211</v>
-      </c>
-      <c r="J9" t="s">
-        <v>2495</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>2496</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2470</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D10">
-        <v>26281</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2497</v>
-      </c>
-      <c r="F10" t="s">
-        <v>735</v>
-      </c>
-      <c r="G10" t="s">
-        <v>733</v>
-      </c>
-      <c r="H10">
-        <v>84</v>
-      </c>
-      <c r="I10" t="s">
-        <v>211</v>
-      </c>
-      <c r="J10" t="s">
-        <v>2498</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>2499</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2470</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D11">
-        <v>71306</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2500</v>
-      </c>
-      <c r="F11" t="s">
-        <v>589</v>
-      </c>
-      <c r="G11" t="s">
-        <v>587</v>
-      </c>
-      <c r="H11">
-        <v>27</v>
-      </c>
-      <c r="I11" t="s">
-        <v>221</v>
-      </c>
-      <c r="J11" t="s">
-        <v>2501</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>2502</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2470</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D12">
-        <v>72003</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2503</v>
-      </c>
-      <c r="F12" t="s">
-        <v>335</v>
-      </c>
-      <c r="G12" t="s">
-        <v>336</v>
-      </c>
-      <c r="H12">
-        <v>52</v>
-      </c>
-      <c r="I12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" t="s">
-        <v>2504</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>2505</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D13">
-        <v>12176</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2506</v>
-      </c>
-      <c r="F13" t="s">
-        <v>534</v>
-      </c>
-      <c r="G13" t="s">
-        <v>532</v>
-      </c>
-      <c r="H13">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s">
-        <v>120</v>
-      </c>
-      <c r="J13" t="s">
-        <v>2507</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>2508</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D14">
-        <v>64300</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2452</v>
-      </c>
-      <c r="F14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G14" t="s">
-        <v>445</v>
-      </c>
-      <c r="H14">
-        <v>75</v>
-      </c>
-      <c r="I14" t="s">
-        <v>137</v>
-      </c>
-      <c r="J14" t="s">
-        <v>2486</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>2509</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D15">
-        <v>69141</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2510</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1514</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1512</v>
-      </c>
-      <c r="H15">
-        <v>84</v>
-      </c>
-      <c r="I15" t="s">
-        <v>211</v>
-      </c>
-      <c r="J15" t="s">
-        <v>2511</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>2512</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2471</v>
-      </c>
-      <c r="D16">
-        <v>31555</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1883</v>
-      </c>
-      <c r="F16" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H16">
-        <v>76</v>
-      </c>
-      <c r="I16" t="s">
-        <v>120</v>
-      </c>
-      <c r="J16" t="s">
-        <v>2513</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>2514</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2471</v>
-      </c>
-      <c r="D17">
-        <v>36044</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2515</v>
-      </c>
-      <c r="F17" t="s">
-        <v>412</v>
-      </c>
-      <c r="G17" t="s">
-        <v>410</v>
-      </c>
-      <c r="H17">
-        <v>24</v>
-      </c>
-      <c r="I17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" t="s">
-        <v>2516</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>2517</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2493</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D18">
-        <v>78624</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2518</v>
-      </c>
-      <c r="F18" t="s">
-        <v>463</v>
-      </c>
-      <c r="G18" t="s">
-        <v>504</v>
-      </c>
-      <c r="H18">
-        <v>11</v>
-      </c>
-      <c r="I18" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" t="s">
-        <v>2519</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>2520</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2470</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D19">
-        <v>13047</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2521</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1283</v>
-      </c>
-      <c r="H19">
-        <v>93</v>
-      </c>
-      <c r="I19" t="s">
-        <v>1046</v>
-      </c>
-      <c r="J19" t="s">
-        <v>2522</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>2523</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2471</v>
-      </c>
-      <c r="D20">
-        <v>80289</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2524</v>
-      </c>
-      <c r="F20" t="s">
-        <v>182</v>
-      </c>
-      <c r="G20" t="s">
-        <v>183</v>
-      </c>
-      <c r="H20">
-        <v>32</v>
-      </c>
-      <c r="I20" t="s">
-        <v>145</v>
-      </c>
-      <c r="J20" t="s">
-        <v>2525</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>2526</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2470</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D21">
-        <v>86289</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2527</v>
-      </c>
-      <c r="F21" t="s">
-        <v>528</v>
-      </c>
-      <c r="G21" t="s">
-        <v>526</v>
-      </c>
-      <c r="H21">
-        <v>75</v>
-      </c>
-      <c r="I21" t="s">
-        <v>137</v>
-      </c>
-      <c r="J21" t="s">
-        <v>2528</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>2529</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2470</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D22">
-        <v>71306</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2500</v>
-      </c>
-      <c r="F22" t="s">
-        <v>589</v>
-      </c>
-      <c r="G22" t="s">
-        <v>587</v>
-      </c>
-      <c r="H22">
-        <v>27</v>
-      </c>
-      <c r="I22" t="s">
-        <v>221</v>
-      </c>
-      <c r="J22" t="s">
-        <v>2501</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>2530</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2470</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D23">
-        <v>30032</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2531</v>
-      </c>
-      <c r="F23" t="s">
-        <v>738</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1055</v>
-      </c>
-      <c r="H23">
-        <v>93</v>
-      </c>
-      <c r="I23" t="s">
-        <v>1046</v>
-      </c>
-      <c r="J23" t="s">
-        <v>2532</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>2533</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2470</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D24">
-        <v>33498</v>
-      </c>
-      <c r="E24" t="s">
-        <v>2534</v>
-      </c>
-      <c r="F24" t="s">
-        <v>480</v>
-      </c>
-      <c r="G24" t="s">
-        <v>538</v>
-      </c>
-      <c r="H24">
-        <v>75</v>
-      </c>
-      <c r="I24" t="s">
-        <v>137</v>
-      </c>
-      <c r="J24" t="s">
-        <v>2535</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>2536</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2479</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2537</v>
-      </c>
-      <c r="F25" t="s">
-        <v>655</v>
-      </c>
-      <c r="G25" t="s">
-        <v>761</v>
-      </c>
-      <c r="H25">
-        <v>75</v>
-      </c>
-      <c r="I25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J25" t="s">
-        <v>2538</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>2536</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D26">
-        <v>59326</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2539</v>
-      </c>
-      <c r="F26" t="s">
-        <v>458</v>
-      </c>
-      <c r="G26" t="s">
-        <v>456</v>
-      </c>
-      <c r="H26">
-        <v>32</v>
-      </c>
-      <c r="I26" t="s">
-        <v>145</v>
-      </c>
-      <c r="J26" t="s">
-        <v>2540</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>2536</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2479</v>
-      </c>
-      <c r="H27">
-        <v>32</v>
-      </c>
-      <c r="I27" t="s">
-        <v>145</v>
-      </c>
-      <c r="J27" t="s">
-        <v>2541</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>2536</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D28">
-        <v>77118</v>
-      </c>
-      <c r="E28" t="s">
-        <v>923</v>
-      </c>
-      <c r="F28" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28">
-        <v>11</v>
-      </c>
-      <c r="I28" t="s">
-        <v>89</v>
-      </c>
-      <c r="J28" t="s">
-        <v>2542</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>2536</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D29">
-        <v>54259</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2543</v>
-      </c>
-      <c r="F29" t="s">
-        <v>675</v>
-      </c>
-      <c r="G29" t="s">
-        <v>673</v>
-      </c>
-      <c r="H29">
-        <v>44</v>
-      </c>
-      <c r="I29" t="s">
-        <v>78</v>
-      </c>
-      <c r="J29" t="s">
-        <v>2544</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>2545</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2493</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D30">
-        <v>60338</v>
-      </c>
-      <c r="E30" t="s">
-        <v>2546</v>
-      </c>
-      <c r="F30" t="s">
-        <v>495</v>
-      </c>
-      <c r="G30" t="s">
-        <v>493</v>
-      </c>
-      <c r="H30">
-        <v>32</v>
-      </c>
-      <c r="I30" t="s">
-        <v>145</v>
-      </c>
-      <c r="J30" t="s">
-        <v>2547</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>2548</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2479</v>
-      </c>
-      <c r="F31" t="s">
-        <v>463</v>
-      </c>
-      <c r="G31" t="s">
-        <v>504</v>
-      </c>
-      <c r="H31">
-        <v>11</v>
-      </c>
-      <c r="I31" t="s">
-        <v>89</v>
-      </c>
-      <c r="J31" t="s">
-        <v>2549</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>2550</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2470</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D32">
-        <v>8096</v>
-      </c>
-      <c r="E32" t="s">
-        <v>460</v>
-      </c>
-      <c r="F32" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" t="s">
-        <v>80</v>
-      </c>
-      <c r="H32">
-        <v>44</v>
-      </c>
-      <c r="I32" t="s">
-        <v>78</v>
-      </c>
-      <c r="J32" t="s">
-        <v>2551</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>2552</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2470</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D33">
-        <v>6029</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2553</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1322</v>
-      </c>
-      <c r="G33" t="s">
-        <v>1320</v>
-      </c>
-      <c r="H33">
-        <v>93</v>
-      </c>
-      <c r="I33" t="s">
-        <v>1046</v>
-      </c>
-      <c r="J33" t="s">
-        <v>2554</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>2555</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D34">
-        <v>13041</v>
-      </c>
-      <c r="E34" t="s">
-        <v>2556</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1283</v>
-      </c>
-      <c r="H34">
-        <v>93</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1046</v>
-      </c>
-      <c r="J34" t="s">
-        <v>2557</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>2558</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2470</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D35">
-        <v>51507</v>
-      </c>
-      <c r="E35" t="s">
-        <v>2559</v>
-      </c>
-      <c r="F35" t="s">
-        <v>306</v>
-      </c>
-      <c r="G35" t="s">
-        <v>307</v>
-      </c>
-      <c r="H35">
-        <v>44</v>
-      </c>
-      <c r="I35" t="s">
-        <v>78</v>
-      </c>
-      <c r="J35" t="s">
-        <v>2560</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>2536</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2471</v>
-      </c>
-      <c r="D36">
-        <v>13097</v>
-      </c>
-      <c r="E36" t="s">
-        <v>2561</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1283</v>
-      </c>
-      <c r="H36">
-        <v>93</v>
-      </c>
-      <c r="I36" t="s">
-        <v>1046</v>
-      </c>
-      <c r="J36" t="s">
-        <v>2562</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>2563</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2479</v>
-      </c>
-      <c r="F37" t="s">
-        <v>146</v>
-      </c>
-      <c r="G37" t="s">
-        <v>147</v>
-      </c>
-      <c r="H37">
-        <v>32</v>
-      </c>
-      <c r="I37" t="s">
-        <v>145</v>
-      </c>
-      <c r="J37" t="s">
-        <v>2564</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>2565</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D38">
-        <v>33517</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2566</v>
-      </c>
-      <c r="F38" t="s">
-        <v>480</v>
-      </c>
-      <c r="G38" t="s">
-        <v>538</v>
-      </c>
-      <c r="H38">
-        <v>75</v>
-      </c>
-      <c r="I38" t="s">
-        <v>137</v>
-      </c>
-      <c r="J38" t="s">
-        <v>2567</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>2536</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C39" t="s">
-        <v>2479</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>2568</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2470</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D40">
-        <v>76351</v>
-      </c>
-      <c r="E40" t="s">
-        <v>2569</v>
-      </c>
-      <c r="F40" t="s">
-        <v>119</v>
-      </c>
-      <c r="G40" t="s">
-        <v>679</v>
-      </c>
-      <c r="H40">
-        <v>28</v>
-      </c>
-      <c r="I40" t="s">
-        <v>37</v>
-      </c>
-      <c r="J40" t="s">
-        <v>2570</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>2571</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2470</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2471</v>
-      </c>
-      <c r="D41">
-        <v>44103</v>
-      </c>
-      <c r="E41" t="s">
-        <v>2572</v>
-      </c>
-      <c r="F41" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41" t="s">
-        <v>175</v>
-      </c>
-      <c r="H41">
-        <v>52</v>
-      </c>
-      <c r="I41" t="s">
-        <v>51</v>
-      </c>
-      <c r="J41" t="s">
-        <v>2573</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>2574</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2493</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D42">
-        <v>69266</v>
-      </c>
-      <c r="E42" t="s">
-        <v>2575</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1514</v>
-      </c>
-      <c r="G42" t="s">
-        <v>1512</v>
-      </c>
-      <c r="H42">
-        <v>84</v>
-      </c>
-      <c r="I42" t="s">
-        <v>211</v>
-      </c>
-      <c r="J42" t="s">
-        <v>2576</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>2577</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2493</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D43">
-        <v>44109</v>
-      </c>
-      <c r="E43" t="s">
-        <v>2578</v>
-      </c>
-      <c r="F43" t="s">
-        <v>77</v>
-      </c>
-      <c r="G43" t="s">
-        <v>175</v>
-      </c>
-      <c r="H43">
-        <v>52</v>
-      </c>
-      <c r="I43" t="s">
-        <v>51</v>
-      </c>
-      <c r="J43" t="s">
-        <v>2579</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>2580</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D44">
-        <v>35068</v>
-      </c>
-      <c r="E44" t="s">
-        <v>2581</v>
-      </c>
-      <c r="F44" t="s">
-        <v>69</v>
-      </c>
-      <c r="G44" t="s">
-        <v>70</v>
-      </c>
-      <c r="H44">
-        <v>53</v>
-      </c>
-      <c r="I44" t="s">
-        <v>68</v>
-      </c>
-      <c r="J44" t="s">
-        <v>2582</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>2583</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D45">
-        <v>13039</v>
-      </c>
-      <c r="E45" t="s">
-        <v>2584</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G45" t="s">
-        <v>1283</v>
-      </c>
-      <c r="H45">
-        <v>93</v>
-      </c>
-      <c r="I45" t="s">
-        <v>1046</v>
-      </c>
-      <c r="J45" t="s">
-        <v>2585</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>2586</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2475</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D46">
-        <v>68375</v>
-      </c>
-      <c r="E46" t="s">
-        <v>2587</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1393</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1391</v>
-      </c>
-      <c r="H46">
-        <v>44</v>
-      </c>
-      <c r="I46" t="s">
-        <v>78</v>
-      </c>
-      <c r="J46" t="s">
-        <v>2588</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K317100 Classification GRTgaz : Public [ ] Interne [X] Restreint [ ] Secret [ ]</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{0fc55952-1fc0-4bcb-977a-64773f1984fe}" enabled="1" method="Standard" siteId="{081c4a9c-ea86-468c-9b4c-30d99d63df76}" contentBits="2" removed="0"/>

--- a/data/bio_co2.xlsx
+++ b/data/bio_co2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keynedupont/Desktop/Drive/Pro/Aktan/Projets/GRTgaz/Projets/Valorisation bio CO2/Atelier #2/BioCO2_map/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CBE5E0-7EF3-2E4E-B826-4485820BADAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50A12BE-C9C5-5548-A01D-FB42323CD6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12933" uniqueCount="5075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12939" uniqueCount="5082">
   <si>
     <t>Nom du projet</t>
   </si>
@@ -15296,6 +15296,27 @@
   </si>
   <si>
     <t>SEM Énergie</t>
+  </si>
+  <si>
+    <t>Fairbrick</t>
+  </si>
+  <si>
+    <t>Fermentalgue carbonworks</t>
+  </si>
+  <si>
+    <t>48.53331</t>
+  </si>
+  <si>
+    <t>4.17017</t>
+  </si>
+  <si>
+    <t>48.30301</t>
+  </si>
+  <si>
+    <t>4.14835</t>
+  </si>
+  <si>
+    <t>Besoin_CO2</t>
   </si>
 </sst>
 </file>
@@ -21052,8 +21073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F461CDD-496E-134F-8251-CA8609B0039E}">
   <dimension ref="A1:Z625"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P2:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -91035,10 +91056,13 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
@@ -91051,7 +91075,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>5032</v>
+        <v>5081</v>
       </c>
       <c r="E1" s="29"/>
     </row>
@@ -91065,21 +91089,39 @@
       <c r="C2" s="29" t="s">
         <v>5073</v>
       </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="29">
+        <v>392.48971189999997</v>
+      </c>
       <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="A3" s="29" t="s">
+        <v>5075</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>5079</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>5080</v>
+      </c>
+      <c r="D3" s="29">
+        <v>100</v>
+      </c>
       <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="A4" s="29" t="s">
+        <v>5076</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>5077</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>5078</v>
+      </c>
+      <c r="D4" s="29">
+        <v>90</v>
+      </c>
       <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">

--- a/data/bio_co2.xlsx
+++ b/data/bio_co2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keynedupont/Desktop/Drive/Pro/Aktan/Projets/GRTgaz/Projets/Valorisation bio CO2/Atelier #2/BioCO2_map/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50A12BE-C9C5-5548-A01D-FB42323CD6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199FD0C7-2E55-7A4E-B683-4CC44FEE6A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12939" uniqueCount="5082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12940" uniqueCount="5083">
   <si>
     <t>Nom du projet</t>
   </si>
@@ -15317,6 +15317,9 @@
   </si>
   <si>
     <t>Besoin_CO2</t>
+  </si>
+  <si>
+    <t>0.73</t>
   </si>
 </sst>
 </file>
@@ -91056,7 +91059,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -91089,8 +91092,8 @@
       <c r="C2" s="29" t="s">
         <v>5073</v>
       </c>
-      <c r="D2" s="29">
-        <v>392.48971189999997</v>
+      <c r="D2" s="29" t="s">
+        <v>5082</v>
       </c>
       <c r="E2" s="29"/>
     </row>
